--- a/thread_strength/summarized_data/summary.xlsx
+++ b/thread_strength/summarized_data/summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_PSMFC_mytilus_byssus_pilot\PSMFC-mytilus-byssus-pilot\thread_strength\summarized_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C087046-4C6D-4D90-8CEA-3BCCD1238338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61ACF8D-8E2E-41F0-BFA0-2044342018DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="415">
   <si>
     <t>mussel</t>
   </si>
@@ -1631,11 +1631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F204"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1647,7 +1647,7 @@
     <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1687,8 +1687,12 @@
         <f>D2/E2*1000</f>
         <v>40.748898678414093</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" t="str">
+        <f>IF(F2&gt;200,"yes","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1705,11 +1709,15 @@
         <v>3.05</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">D3/E3*1000</f>
+        <f>D3/E3*1000</f>
         <v>29.508196721311478</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(F3&gt;200,"yes","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1726,11 +1734,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="F4">
+        <f>D4/E4*1000</f>
+        <v>68.965517241379317</v>
+      </c>
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>68.965517241379317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1747,11 +1759,15 @@
         <v>4.83</v>
       </c>
       <c r="F5">
+        <f>D5/E5*1000</f>
+        <v>75.569358178053818</v>
+      </c>
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>75.569358178053818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1768,11 +1784,15 @@
         <v>5.94</v>
       </c>
       <c r="F6">
+        <f>D6/E6*1000</f>
+        <v>57.239057239057239</v>
+      </c>
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>57.239057239057239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1789,454 +1809,542 @@
         <v>5.13</v>
       </c>
       <c r="F7">
+        <f>D7/E7*1000</f>
+        <v>64.327485380116968</v>
+      </c>
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>64.327485380116968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
       <c r="E8">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="F8">
+        <f>D8/E8*1000</f>
+        <v>75.757575757575765</v>
+      </c>
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>58.052434456928843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.33500000000000002</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E9">
-        <v>3.79</v>
+        <v>4.03</v>
       </c>
       <c r="F9">
+        <f>D9/E9*1000</f>
+        <v>34.739454094292803</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>88.390501319261219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E10">
+        <v>4.45</v>
+      </c>
+      <c r="F10">
+        <f>D10/E10*1000</f>
+        <v>82.022471910112358</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>2.25</v>
+      </c>
+      <c r="F11">
+        <f>D11/E11*1000</f>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="E10">
-        <v>5.36</v>
-      </c>
-      <c r="F10">
+      <c r="D12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E12">
+        <v>2.16</v>
+      </c>
+      <c r="F12">
+        <f>D12/E12*1000</f>
+        <v>32.407407407407405</v>
+      </c>
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>34.514925373134325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E11">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="F11">
+      <c r="D13" s="1">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F13">
+        <f>D13/E13*1000</f>
+        <v>15.90909090909091</v>
+      </c>
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>110.44176706827309</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="E12">
-        <v>2.91</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>73.883161512027499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E13">
-        <v>3.14</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>60.509554140127392</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.115</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E14">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="F14">
+        <f>D14/E14*1000</f>
+        <v>31.25</v>
+      </c>
+      <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>65.340909090909093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>0.25</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E15">
-        <v>2.5299999999999998</v>
+        <v>2.23</v>
       </c>
       <c r="F15">
+        <f>D15/E15*1000</f>
+        <v>20.179372197309416</v>
+      </c>
+      <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>98.814229249011873</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>0.23</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E16">
-        <v>1.72</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F16">
+        <f>D16/E16*1000</f>
+        <v>11.19402985074627</v>
+      </c>
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>133.72093023255815</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>0.45</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E17">
-        <v>3.38</v>
+        <v>1.62</v>
       </c>
       <c r="F17">
+        <f>D17/E17*1000</f>
+        <v>52.469135802469133</v>
+      </c>
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>133.13609467455623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>0.41</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E18">
-        <v>3.39</v>
+        <v>2.14</v>
       </c>
       <c r="F18">
+        <f>D18/E18*1000</f>
+        <v>35.046728971962615</v>
+      </c>
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>120.94395280235986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
       </c>
       <c r="D19" s="1">
-        <v>0.3</v>
+        <v>0.13</v>
       </c>
       <c r="E19">
-        <v>5.99</v>
+        <v>1.56</v>
       </c>
       <c r="F19">
+        <f>D19/E19*1000</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>50.083472454090142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="F20">
+        <f>D20/E20*1000</f>
+        <v>41.044776119402982</v>
+      </c>
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>0.185</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>1.73</v>
+        <v>2.58</v>
       </c>
       <c r="F21">
+        <f>D21/E21*1000</f>
+        <v>36.821705426356587</v>
+      </c>
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>106.93641618497109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
       </c>
       <c r="D22" s="1">
-        <v>0.16500000000000001</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E22">
-        <v>1.63</v>
+        <v>2.77</v>
       </c>
       <c r="F22">
+        <f>D22/E22*1000</f>
+        <v>27.075812274368232</v>
+      </c>
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>101.22699386503069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.51</v>
+        <v>0.115</v>
       </c>
       <c r="E23">
-        <v>4.54</v>
+        <v>3.81</v>
       </c>
       <c r="F23">
+        <f>D23/E23*1000</f>
+        <v>30.183727034120736</v>
+      </c>
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>112.33480176211454</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.33500000000000002</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="E24">
-        <v>3.39</v>
+        <v>3.58</v>
       </c>
       <c r="F24">
+        <f>D24/E24*1000</f>
+        <v>57.262569832402228</v>
+      </c>
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>98.820058997050154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="E25">
-        <v>3.36</v>
+        <v>2.67</v>
       </c>
       <c r="F25">
+        <f>D25/E25*1000</f>
+        <v>58.052434456928843</v>
+      </c>
+      <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>61.011904761904759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.32</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E26">
-        <v>2.69</v>
+        <v>3.79</v>
       </c>
       <c r="F26">
+        <f>D26/E26*1000</f>
+        <v>88.390501319261219</v>
+      </c>
+      <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>118.95910780669146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1">
-        <v>0.22</v>
+        <v>0.185</v>
       </c>
       <c r="E27">
-        <v>3.11</v>
+        <v>5.36</v>
       </c>
       <c r="F27">
+        <f>D27/E27*1000</f>
+        <v>34.514925373134325</v>
+      </c>
+      <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>70.739549839228303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>0.26</v>
+        <v>0.215</v>
       </c>
       <c r="E28">
-        <v>2.42</v>
+        <v>2.67</v>
       </c>
       <c r="F28">
+        <f>D28/E28*1000</f>
+        <v>80.524344569288388</v>
+      </c>
+      <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>107.43801652892563</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>35</v>
@@ -2245,19 +2353,23 @@
         <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E29">
-        <v>3.55</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F29">
+        <f>D29/E29*1000</f>
+        <v>110.44176706827309</v>
+      </c>
+      <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>40.845070422535215</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>35</v>
@@ -2266,19 +2378,23 @@
         <v>2</v>
       </c>
       <c r="D30" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="E30">
-        <v>2.88</v>
+        <v>2.91</v>
       </c>
       <c r="F30">
+        <f>D30/E30*1000</f>
+        <v>73.883161512027499</v>
+      </c>
+      <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>48.611111111111121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>35</v>
@@ -2287,166 +2403,198 @@
         <v>3</v>
       </c>
       <c r="D31" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.19</v>
       </c>
       <c r="E31">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="F31">
+        <f>D31/E31*1000</f>
+        <v>60.509554140127392</v>
+      </c>
+      <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>24.054982817869416</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="E32">
-        <v>3.39</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F32">
+        <f>D32/E32*1000</f>
+        <v>138.55421686746985</v>
+      </c>
+      <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>69.321533923303832</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>0.185</v>
+        <v>0.115</v>
       </c>
       <c r="E33">
-        <v>2.5</v>
+        <v>1.76</v>
       </c>
       <c r="F33">
+        <f>D33/E33*1000</f>
+        <v>65.340909090909093</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="E34">
-        <v>3.87</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="F34">
+        <f>D34/E34*1000</f>
+        <v>98.814229249011873</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>67.183462532299743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E35">
+        <v>1.72</v>
+      </c>
+      <c r="F35">
+        <f>D35/E35*1000</f>
+        <v>133.72093023255815</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="1">
         <v>1</v>
       </c>
-      <c r="D35" s="1">
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="E35">
-        <v>2.76</v>
-      </c>
-      <c r="F35">
+      <c r="D36" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E36">
+        <v>1.76</v>
+      </c>
+      <c r="F36">
+        <f>D36/E36*1000</f>
+        <v>96.590909090909108</v>
+      </c>
+      <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>161.23188405797103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="1">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
-        <v>0.27</v>
-      </c>
-      <c r="E36">
-        <v>3.8</v>
-      </c>
-      <c r="F36">
+      <c r="D37" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="E37">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F37">
+        <f>D37/E37*1000</f>
+        <v>84.980237154150203</v>
+      </c>
+      <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>71.052631578947384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="1">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
-        <v>0.495</v>
-      </c>
-      <c r="E37">
-        <v>1.9</v>
-      </c>
-      <c r="F37">
+      <c r="D38" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E38">
+        <v>1.72</v>
+      </c>
+      <c r="F38">
+        <f>D38/E38*1000</f>
+        <v>29.069767441860467</v>
+      </c>
+      <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>260.5263157894737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="E38">
-        <v>5.62</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>76.512455516014242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>35</v>
@@ -2455,19 +2603,23 @@
         <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>0.155</v>
+        <v>0.45</v>
       </c>
       <c r="E39">
         <v>3.38</v>
       </c>
       <c r="F39">
+        <f>D39/E39*1000</f>
+        <v>133.13609467455623</v>
+      </c>
+      <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>45.857988165680474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>35</v>
@@ -2476,19 +2628,23 @@
         <v>2</v>
       </c>
       <c r="D40" s="1">
-        <v>0.27500000000000002</v>
+        <v>0.41</v>
       </c>
       <c r="E40">
-        <v>2.81</v>
+        <v>3.39</v>
       </c>
       <c r="F40">
+        <f>D40/E40*1000</f>
+        <v>120.94395280235986</v>
+      </c>
+      <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>97.864768683274022</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>35</v>
@@ -2497,82 +2653,98 @@
         <v>3</v>
       </c>
       <c r="D41" s="1">
-        <v>0.32500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="E41">
-        <v>5.18</v>
+        <v>5.99</v>
       </c>
       <c r="F41">
+        <f>D41/E41*1000</f>
+        <v>50.083472454090142</v>
+      </c>
+      <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>62.74131274131274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>0.245</v>
+        <v>0.49</v>
       </c>
       <c r="E42">
-        <v>4.13</v>
+        <v>3.38</v>
       </c>
       <c r="F42">
+        <f>D42/E42*1000</f>
+        <v>144.97041420118342</v>
+      </c>
+      <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>59.322033898305087</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C43" s="1">
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>0.36499999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E43">
-        <v>4.8499999999999996</v>
+        <v>3.39</v>
       </c>
       <c r="F43">
+        <f>D43/E43*1000</f>
+        <v>66.371681415929203</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>75.257731958762903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C44" s="1">
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>0.255</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E44">
-        <v>5.05</v>
+        <v>5.99</v>
       </c>
       <c r="F44">
+        <f>D44/E44*1000</f>
+        <v>37.562604340567617</v>
+      </c>
+      <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>50.495049504950501</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>35</v>
@@ -2581,19 +2753,23 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <v>0.3</v>
+        <v>0.17</v>
       </c>
       <c r="E45">
-        <v>4.47</v>
+        <v>2</v>
       </c>
       <c r="F45">
+        <f>D45/E45*1000</f>
+        <v>85</v>
+      </c>
+      <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>67.114093959731548</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>35</v>
@@ -2602,19 +2778,23 @@
         <v>2</v>
       </c>
       <c r="D46" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="E46">
-        <v>3.85</v>
+        <v>1.73</v>
       </c>
       <c r="F46">
+        <f>D46/E46*1000</f>
+        <v>106.93641618497109</v>
+      </c>
+      <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>61.038961038961034</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>35</v>
@@ -2623,22 +2803,26 @@
         <v>3</v>
       </c>
       <c r="D47" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E47">
-        <v>3.73</v>
+        <v>1.63</v>
       </c>
       <c r="F47">
+        <f>D47/E47*1000</f>
+        <v>101.22699386503069</v>
+      </c>
+      <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>63.002680965147455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -2647,331 +2831,395 @@
         <v>0.1</v>
       </c>
       <c r="E48">
-        <v>4.05</v>
+        <v>2</v>
       </c>
       <c r="F48">
+        <f>D48/E48*1000</f>
+        <v>50</v>
+      </c>
+      <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>24.691358024691361</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C49" s="1">
         <v>2</v>
       </c>
       <c r="D49" s="1">
-        <v>0.6</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="E49">
-        <v>5.96</v>
+        <v>1.73</v>
       </c>
       <c r="F49">
+        <f>D49/E49*1000</f>
+        <v>164.73988439306359</v>
+      </c>
+      <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>100.67114093959731</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C50" s="1">
         <v>3</v>
       </c>
       <c r="D50" s="1">
-        <v>0.27</v>
+        <v>0.185</v>
       </c>
       <c r="E50">
-        <v>4.78</v>
+        <v>1.63</v>
       </c>
       <c r="F50">
+        <f>D50/E50*1000</f>
+        <v>113.49693251533743</v>
+      </c>
+      <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>56.485355648535567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="E51">
-        <v>2.5499999999999998</v>
+        <v>5.26</v>
       </c>
       <c r="F51">
+        <f>D51/E51*1000</f>
+        <v>17.110266159695819</v>
+      </c>
+      <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>74.509803921568647</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C52" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="E52">
-        <v>2.4900000000000002</v>
+        <v>4.54</v>
       </c>
       <c r="F52">
+        <f>D52/E52*1000</f>
+        <v>112.33480176211454</v>
+      </c>
+      <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>116.46586345381523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E53">
-        <v>2.71</v>
+        <v>3.39</v>
       </c>
       <c r="F53">
+        <f>D53/E53*1000</f>
+        <v>98.820058997050154</v>
+      </c>
+      <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>51.660516605166059</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E54">
+        <v>3.36</v>
+      </c>
+      <c r="F54">
+        <f>D54/E54*1000</f>
+        <v>61.011904761904759</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="1">
         <v>1</v>
       </c>
-      <c r="D54" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E54">
-        <v>2.8</v>
-      </c>
-      <c r="F54">
+      <c r="D55" s="1">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E55">
+        <v>4.54</v>
+      </c>
+      <c r="F55">
+        <f>D55/E55*1000</f>
+        <v>49.559471365638771</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>30.357142857142861</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="1">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="E55">
-        <v>4</v>
-      </c>
-      <c r="F55">
+      <c r="D56" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E56">
+        <v>3.39</v>
+      </c>
+      <c r="F56">
+        <f>D56/E56*1000</f>
+        <v>132.74336283185841</v>
+      </c>
+      <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>66.25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="E56">
-        <v>3.71</v>
-      </c>
-      <c r="F56">
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="E57">
+        <v>3.36</v>
+      </c>
+      <c r="F57">
+        <f>D57/E57*1000</f>
+        <v>34.226190476190482</v>
+      </c>
+      <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>49.865229110512132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="E57">
-        <v>2.76</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>52.536231884057969</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E58">
-        <v>3.53</v>
+        <v>2.69</v>
       </c>
       <c r="F58">
+        <f>D58/E58*1000</f>
+        <v>118.95910780669146</v>
+      </c>
+      <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>46.742209631728052</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="1">
-        <v>0.125</v>
+        <v>0.22</v>
       </c>
       <c r="E59">
-        <v>2.98</v>
+        <v>3.11</v>
       </c>
       <c r="F59">
+        <f>D59/E59*1000</f>
+        <v>70.739549839228303</v>
+      </c>
+      <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>41.946308724832214</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="1">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E60">
+        <v>2.42</v>
+      </c>
+      <c r="F60">
+        <f>D60/E60*1000</f>
+        <v>107.43801652892563</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E61">
+        <v>2.69</v>
+      </c>
+      <c r="F61">
+        <f>D61/E61*1000</f>
+        <v>120.817843866171</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="1">
         <v>2</v>
       </c>
-      <c r="D60" s="1">
-        <v>0.19</v>
-      </c>
-      <c r="E60">
-        <v>2.86</v>
-      </c>
-      <c r="F60">
+      <c r="D62" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E62">
+        <v>3.11</v>
+      </c>
+      <c r="F62">
+        <f>D62/E62*1000</f>
+        <v>96.463022508038577</v>
+      </c>
+      <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>66.433566433566426</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C63" s="1">
         <v>3</v>
       </c>
-      <c r="D61" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="E61">
-        <v>4.12</v>
-      </c>
-      <c r="F61">
+      <c r="D63" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E63">
+        <v>2.42</v>
+      </c>
+      <c r="F63">
+        <f>D63/E63*1000</f>
+        <v>64.049586776859499</v>
+      </c>
+      <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>89.805825242718441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E62">
-        <v>7.55</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>31.788079470198674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="E63">
-        <v>4.37</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>59.496567505720826</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>35</v>
@@ -2980,19 +3228,23 @@
         <v>1</v>
       </c>
       <c r="D64" s="1">
-        <v>0.42499999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E64">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="F64">
+        <f>D64/E64*1000</f>
+        <v>40.845070422535215</v>
+      </c>
+      <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>116.43835616438355</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>35</v>
@@ -3001,229 +3253,273 @@
         <v>2</v>
       </c>
       <c r="D65" s="1">
-        <v>0.38</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E65">
-        <v>3.71</v>
+        <v>2.88</v>
       </c>
       <c r="F65">
+        <f>D65/E65*1000</f>
+        <v>48.611111111111121</v>
+      </c>
+      <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>102.42587601078168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E66">
+        <v>2.91</v>
+      </c>
+      <c r="F66">
+        <f>D66/E66*1000</f>
+        <v>24.054982817869416</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="E66">
-        <v>5.4</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>63.888888888888886</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E67">
+        <v>3.55</v>
+      </c>
+      <c r="F67">
+        <f>D67/E67*1000</f>
+        <v>54.929577464788736</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">IF(F67&gt;200,"yes","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="1">
         <v>2</v>
       </c>
-      <c r="D67" s="1">
-        <v>0.245</v>
-      </c>
-      <c r="E67">
-        <v>7.45</v>
-      </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F130" si="1">D67/E67*1000</f>
-        <v>32.885906040268452</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E68">
+        <v>2.88</v>
+      </c>
+      <c r="F68">
+        <f>D68/E68*1000</f>
+        <v>22.569444444444446</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="1">
         <v>3</v>
       </c>
-      <c r="D68" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="E68">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="F68">
+      <c r="D69" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E69">
+        <v>2.91</v>
+      </c>
+      <c r="F69">
+        <f>D69/E69*1000</f>
+        <v>42.955326460481096</v>
+      </c>
+      <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>74.701195219123505</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="1">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="E69">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>47.959183673469383</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1">
-        <v>8.5000000000000006E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E70">
-        <v>3.48</v>
+        <v>3.39</v>
       </c>
       <c r="F70">
+        <f>D70/E70*1000</f>
+        <v>69.321533923303832</v>
+      </c>
+      <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>24.425287356321842</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>0.13</v>
+        <v>0.185</v>
       </c>
       <c r="E71">
-        <v>4.03</v>
+        <v>2.5</v>
       </c>
       <c r="F71">
+        <f>D71/E71*1000</f>
+        <v>74</v>
+      </c>
+      <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>32.258064516129032</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1">
-        <v>0.46500000000000002</v>
+        <v>0.26</v>
       </c>
       <c r="E72">
-        <v>4.7300000000000004</v>
+        <v>3.87</v>
       </c>
       <c r="F72">
+        <f>D72/E72*1000</f>
+        <v>67.183462532299743</v>
+      </c>
+      <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>98.308668076109939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <v>0.115</v>
+        <v>0.38</v>
       </c>
       <c r="E73">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="F73">
+        <f>D73/E73*1000</f>
+        <v>112.09439528023599</v>
+      </c>
+      <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>35.714285714285715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C74" s="1">
         <v>2</v>
       </c>
       <c r="D74" s="1">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="E74">
-        <v>3.37</v>
+        <v>2.5</v>
       </c>
       <c r="F74">
+        <f>D74/E74*1000</f>
+        <v>32</v>
+      </c>
+      <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>56.379821958456972</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="C75" s="1">
         <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>0.23</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E75">
-        <v>4.4400000000000004</v>
+        <v>3.87</v>
       </c>
       <c r="F75">
+        <f>D75/E75*1000</f>
+        <v>34.883720930232556</v>
+      </c>
+      <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>51.801801801801801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>35</v>
@@ -3232,19 +3528,23 @@
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>0.26500000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E76">
-        <v>5.76</v>
+        <v>2.76</v>
       </c>
       <c r="F76">
+        <f>D76/E76*1000</f>
+        <v>161.23188405797103</v>
+      </c>
+      <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>46.00694444444445</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>35</v>
@@ -3253,502 +3553,594 @@
         <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="E77">
-        <v>5.12</v>
+        <v>3.8</v>
       </c>
       <c r="F77">
+        <f>D77/E77*1000</f>
+        <v>71.052631578947384</v>
+      </c>
+      <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>66.40625</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C78" s="1">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="E78">
+        <v>2.9</v>
+      </c>
+      <c r="F78">
+        <f>D78/E78*1000</f>
+        <v>170.68965517241381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="1">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>3.3</v>
-      </c>
-      <c r="F78">
+      <c r="D79" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E79">
+        <v>2.76</v>
+      </c>
+      <c r="F79">
+        <f>D79/E79*1000</f>
+        <v>36.231884057971023</v>
+      </c>
+      <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>28.787878787878789</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C79" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="E79">
-        <v>3.66</v>
-      </c>
-      <c r="F79">
+      <c r="D80" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E80">
+        <v>3.8</v>
+      </c>
+      <c r="F80">
+        <f>D80/E80*1000</f>
+        <v>34.210526315789473</v>
+      </c>
+      <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>65.573770491803273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" s="1">
         <v>3</v>
       </c>
-      <c r="D80" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E80">
-        <v>3.71</v>
-      </c>
-      <c r="F80">
+      <c r="D81" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E81">
+        <v>1.9</v>
+      </c>
+      <c r="F81">
+        <f>D81/E81*1000</f>
+        <v>34.210526315789473</v>
+      </c>
+      <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>67.385444743935309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E81">
-        <v>3.1</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>53.225806451612904</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
         <v>0.11</v>
       </c>
       <c r="E82">
-        <v>4.07</v>
+        <v>2.06</v>
       </c>
       <c r="F82">
+        <f>D82/E82*1000</f>
+        <v>53.398058252427184</v>
+      </c>
+      <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>27.027027027027025</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C83" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" s="1">
-        <v>4.4999999999999998E-2</v>
+        <v>0.43</v>
       </c>
       <c r="E83">
-        <v>2.66</v>
+        <v>5.62</v>
       </c>
       <c r="F83">
+        <f>D83/E83*1000</f>
+        <v>76.512455516014242</v>
+      </c>
+      <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>16.917293233082706</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C84" s="1">
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E84">
-        <v>2.89</v>
+        <v>5.62</v>
       </c>
       <c r="F84">
+        <f>D84/E84*1000</f>
+        <v>35.587188612099645</v>
+      </c>
+      <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>62.283737024221452</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="C85" s="1">
         <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E85">
-        <v>4.49</v>
+        <v>1.19</v>
       </c>
       <c r="F85">
+        <f>D85/E85*1000</f>
+        <v>147.05882352941177</v>
+      </c>
+      <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>52.338530066815139</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C86" s="1">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E86">
+        <v>2.21</v>
+      </c>
+      <c r="F86">
+        <f>D86/E86*1000</f>
+        <v>119.90950226244344</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1">
         <v>1</v>
       </c>
-      <c r="D86" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E86">
-        <v>2.64</v>
-      </c>
-      <c r="F86">
+      <c r="D87" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E87">
+        <v>3.38</v>
+      </c>
+      <c r="F87">
+        <f>D87/E87*1000</f>
+        <v>45.857988165680474</v>
+      </c>
+      <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>75.757575757575765</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C87" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="1">
         <v>2</v>
       </c>
-      <c r="D87" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E87">
-        <v>4.03</v>
-      </c>
-      <c r="F87">
+      <c r="D88" s="1">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="E88">
+        <v>2.81</v>
+      </c>
+      <c r="F88">
+        <f>D88/E88*1000</f>
+        <v>97.864768683274022</v>
+      </c>
+      <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>34.739454094292803</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C88" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="1">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E89">
+        <v>5.18</v>
+      </c>
+      <c r="F89">
+        <f>D89/E89*1000</f>
+        <v>62.74131274131274</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="1">
         <v>1</v>
       </c>
-      <c r="D88" s="1">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="E88">
-        <v>4.45</v>
-      </c>
-      <c r="F88">
+      <c r="D90" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E90">
+        <v>3.38</v>
+      </c>
+      <c r="F90">
+        <f>D90/E90*1000</f>
+        <v>60.650887573964496</v>
+      </c>
+      <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>82.022471910112358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C89" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D89" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E89">
-        <v>2.25</v>
-      </c>
-      <c r="F89">
+      <c r="D91" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E91">
+        <v>2.81</v>
+      </c>
+      <c r="F91">
+        <f>D91/E91*1000</f>
+        <v>53.380782918149464</v>
+      </c>
+      <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>88.888888888888886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C90" s="1">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E90">
-        <v>2.16</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>32.407407407407405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="E91">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>15.90909090909091</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C92" s="1">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.115</v>
+      </c>
+      <c r="E92">
+        <v>5.18</v>
+      </c>
+      <c r="F92">
+        <f>D92/E92*1000</f>
+        <v>22.200772200772203</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="1">
         <v>1</v>
       </c>
-      <c r="D92" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E92">
-        <v>2.08</v>
-      </c>
-      <c r="F92">
+      <c r="D93" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E93">
+        <v>4.13</v>
+      </c>
+      <c r="F93">
+        <f>D93/E93*1000</f>
+        <v>59.322033898305087</v>
+      </c>
+      <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C93" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="1">
         <v>2</v>
       </c>
-      <c r="D93" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E93">
-        <v>2.23</v>
-      </c>
-      <c r="F93">
+      <c r="D94" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E94">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F94">
+        <f>D94/E94*1000</f>
+        <v>75.257731958762903</v>
+      </c>
+      <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>20.179372197309416</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C94" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="1">
         <v>3</v>
       </c>
-      <c r="D94" s="1">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E94">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="F94">
+      <c r="D95" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E95">
+        <v>5.05</v>
+      </c>
+      <c r="F95">
+        <f>D95/E95*1000</f>
+        <v>50.495049504950501</v>
+      </c>
+      <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>11.19402985074627</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-      <c r="D95" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E95">
-        <v>1.62</v>
-      </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>52.469135802469133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="E96">
-        <v>2.14</v>
+        <v>4.13</v>
       </c>
       <c r="F96">
+        <f>D96/E96*1000</f>
+        <v>54.479418886198545</v>
+      </c>
+      <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>35.046728971962615</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C97" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>0.13</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E97">
-        <v>1.56</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F97">
+        <f>D97/E97*1000</f>
+        <v>27.835051546391757</v>
+      </c>
+      <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="E98">
-        <v>2.68</v>
+        <v>4.47</v>
       </c>
       <c r="F98">
+        <f>D98/E98*1000</f>
+        <v>67.114093959731548</v>
+      </c>
+      <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>41.044776119402982</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E99">
-        <v>2.58</v>
+        <v>3.85</v>
       </c>
       <c r="F99">
+        <f>D99/E99*1000</f>
+        <v>61.038961038961034</v>
+      </c>
+      <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>36.821705426356587</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C100" s="1">
         <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E100">
-        <v>2.77</v>
+        <v>3.73</v>
       </c>
       <c r="F100">
+        <f>D100/E100*1000</f>
+        <v>63.002680965147455</v>
+      </c>
+      <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>27.075812274368232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>223</v>
@@ -3757,19 +4149,23 @@
         <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>0.115</v>
+        <v>0.18</v>
       </c>
       <c r="E101">
-        <v>3.81</v>
+        <v>4.47</v>
       </c>
       <c r="F101">
+        <f>D101/E101*1000</f>
+        <v>40.268456375838923</v>
+      </c>
+      <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>30.183727034120736</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>223</v>
@@ -3778,733 +4174,873 @@
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>0.20499999999999999</v>
+        <v>0.105</v>
       </c>
       <c r="E102">
-        <v>3.58</v>
+        <v>3.85</v>
       </c>
       <c r="F102">
+        <f>D102/E102*1000</f>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>57.262569832402228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103" s="1">
-        <v>0.215</v>
+        <v>0.125</v>
       </c>
       <c r="E103">
-        <v>2.67</v>
+        <v>3.73</v>
       </c>
       <c r="F103">
+        <f>D103/E103*1000</f>
+        <v>33.512064343163537</v>
+      </c>
+      <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>80.524344569288388</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>0.34499999999999997</v>
+        <v>0.125</v>
       </c>
       <c r="E104">
+        <v>1.82</v>
+      </c>
+      <c r="F104">
+        <f>D104/E104*1000</f>
+        <v>68.681318681318672</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E105">
+        <v>3.05</v>
+      </c>
+      <c r="F105">
+        <f>D105/E105*1000</f>
+        <v>26.229508196721316</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E106">
+        <v>4.05</v>
+      </c>
+      <c r="F106">
+        <f>D106/E106*1000</f>
+        <v>24.691358024691361</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E107">
+        <v>5.96</v>
+      </c>
+      <c r="F107">
+        <f>D107/E107*1000</f>
+        <v>100.67114093959731</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E108">
+        <v>4.78</v>
+      </c>
+      <c r="F108">
+        <f>D108/E108*1000</f>
+        <v>56.485355648535567</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E109">
+        <v>4.05</v>
+      </c>
+      <c r="F109">
+        <f>D109/E109*1000</f>
+        <v>58.02469135802469</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="E110">
+        <v>5.96</v>
+      </c>
+      <c r="F110">
+        <f>D110/E110*1000</f>
+        <v>36.0738255033557</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E111">
+        <v>4.78</v>
+      </c>
+      <c r="F111">
+        <f>D111/E111*1000</f>
+        <v>34.518828451882847</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E112">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F112">
+        <f>D112/E112*1000</f>
+        <v>74.509803921568647</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C113" s="1">
+        <v>2</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E113">
         <v>2.4900000000000002</v>
       </c>
-      <c r="F104">
+      <c r="F113">
+        <f>D113/E113*1000</f>
+        <v>116.46586345381523</v>
+      </c>
+      <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>138.55421686746985</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-      <c r="D105" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="E105">
-        <v>1.76</v>
-      </c>
-      <c r="F105">
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E114">
+        <v>2.71</v>
+      </c>
+      <c r="F114">
+        <f>D114/E114*1000</f>
+        <v>51.660516605166059</v>
+      </c>
+      <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>96.590909090909108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-      <c r="D106" s="1">
-        <v>0.215</v>
-      </c>
-      <c r="E106">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>84.980237154150203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C107" s="1">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="E107">
-        <v>1.72</v>
-      </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>29.069767441860467</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1">
-        <v>0.49</v>
-      </c>
-      <c r="E108">
-        <v>3.38</v>
-      </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>144.97041420118342</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2</v>
-      </c>
-      <c r="D109" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E109">
-        <v>3.39</v>
-      </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>66.371681415929203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="1">
-        <v>3</v>
-      </c>
-      <c r="D110" s="1">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="E110">
-        <v>5.99</v>
-      </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>37.562604340567617</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-      <c r="D111" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="E111">
-        <v>2</v>
-      </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2</v>
-      </c>
-      <c r="D112" s="1">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E112">
-        <v>1.73</v>
-      </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>164.73988439306359</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C113" s="1">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1">
-        <v>0.185</v>
-      </c>
-      <c r="E113">
-        <v>1.63</v>
-      </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>113.49693251533743</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C114" s="1">
-        <v>1</v>
-      </c>
-      <c r="D114" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E114">
-        <v>5.26</v>
-      </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>17.110266159695819</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C115" s="1">
         <v>1</v>
       </c>
       <c r="D115" s="1">
-        <v>0.22500000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="E115">
-        <v>4.54</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F115">
+        <f>D115/E115*1000</f>
+        <v>131.37254901960785</v>
+      </c>
+      <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>49.559471365638771</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C116" s="1">
         <v>2</v>
       </c>
       <c r="D116" s="1">
-        <v>0.45</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E116">
-        <v>3.39</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F116">
+        <f>D116/E116*1000</f>
+        <v>10.040160642570282</v>
+      </c>
+      <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>132.74336283185841</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C117" s="1">
         <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>0.115</v>
+        <v>0.15</v>
       </c>
       <c r="E117">
-        <v>3.36</v>
+        <v>2.71</v>
       </c>
       <c r="F117">
+        <f>D117/E117*1000</f>
+        <v>55.350553505535053</v>
+      </c>
+      <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>34.226190476190482</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="D118" s="1">
-        <v>0.32500000000000001</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E118">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="F118">
+        <f>D118/E118*1000</f>
+        <v>30.357142857142861</v>
+      </c>
+      <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>120.817843866171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>35</v>
       </c>
       <c r="C119" s="1">
         <v>2</v>
       </c>
       <c r="D119" s="1">
-        <v>0.3</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E119">
-        <v>3.11</v>
+        <v>4</v>
       </c>
       <c r="F119">
+        <f>D119/E119*1000</f>
+        <v>66.25</v>
+      </c>
+      <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>96.463022508038577</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E120">
+        <v>2.8</v>
+      </c>
+      <c r="F120">
+        <f>D120/E120*1000</f>
+        <v>25.000000000000004</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <f>D121/E121*1000</f>
+        <v>63.75</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C122" s="1">
         <v>3</v>
       </c>
-      <c r="D120" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="E120">
-        <v>2.42</v>
-      </c>
-      <c r="F120">
+      <c r="D122" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E122">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F122">
+        <f>D122/E122*1000</f>
+        <v>50.119331742243432</v>
+      </c>
+      <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>64.049586776859499</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C121" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C123" s="1">
         <v>1</v>
       </c>
-      <c r="D121" s="1">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="E121">
-        <v>3.55</v>
-      </c>
-      <c r="F121">
+      <c r="D123" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="E123">
+        <v>3.71</v>
+      </c>
+      <c r="F123">
+        <f>D123/E123*1000</f>
+        <v>49.865229110512132</v>
+      </c>
+      <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>54.929577464788736</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C122" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C124" s="1">
         <v>2</v>
       </c>
-      <c r="D122" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E122">
-        <v>2.88</v>
-      </c>
-      <c r="F122">
+      <c r="D124" s="1">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E124">
+        <v>2.76</v>
+      </c>
+      <c r="F124">
+        <f>D124/E124*1000</f>
+        <v>52.536231884057969</v>
+      </c>
+      <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>22.569444444444446</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C123" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C125" s="1">
         <v>3</v>
       </c>
-      <c r="D123" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="E123">
-        <v>2.91</v>
-      </c>
-      <c r="F123">
+      <c r="D125" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E125">
+        <v>3.53</v>
+      </c>
+      <c r="F125">
+        <f>D125/E125*1000</f>
+        <v>46.742209631728052</v>
+      </c>
+      <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>42.955326460481096</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C124" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C126" s="1">
         <v>1</v>
       </c>
-      <c r="D124" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="E124">
-        <v>3.39</v>
-      </c>
-      <c r="F124">
+      <c r="D126" s="1">
+        <v>0.255</v>
+      </c>
+      <c r="E126">
+        <v>3.71</v>
+      </c>
+      <c r="F126">
+        <f>D126/E126*1000</f>
+        <v>68.733153638814017</v>
+      </c>
+      <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>112.09439528023599</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2</v>
-      </c>
-      <c r="D125" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E125">
-        <v>2.5</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C126" s="1">
-        <v>3</v>
-      </c>
-      <c r="D126" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E126">
-        <v>3.87</v>
-      </c>
-      <c r="F126">
-        <f t="shared" si="1"/>
-        <v>34.883720930232556</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="E127">
         <v>2.76</v>
       </c>
       <c r="F127">
+        <f>D127/E127*1000</f>
+        <v>56.159420289855078</v>
+      </c>
+      <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>36.231884057971023</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E128">
+        <v>3.53</v>
+      </c>
+      <c r="F128">
+        <f>D128/E128*1000</f>
+        <v>31.161473087818699</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="E129">
+        <v>2.98</v>
+      </c>
+      <c r="F129">
+        <f>D129/E129*1000</f>
+        <v>41.946308724832214</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="1">
         <v>2</v>
       </c>
-      <c r="D128" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="E128">
-        <v>3.8</v>
-      </c>
-      <c r="F128">
+      <c r="D130" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E130">
+        <v>2.86</v>
+      </c>
+      <c r="F130">
+        <f>D130/E130*1000</f>
+        <v>66.433566433566426</v>
+      </c>
+      <c r="G130" t="str">
         <f t="shared" si="1"/>
-        <v>34.210526315789473</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C129" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" s="1">
         <v>3</v>
       </c>
-      <c r="D129" s="1">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E129">
-        <v>1.9</v>
-      </c>
-      <c r="F129">
-        <f t="shared" si="1"/>
-        <v>34.210526315789473</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="1">
-        <v>4</v>
-      </c>
-      <c r="D130" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E130">
-        <v>2.06</v>
-      </c>
-      <c r="F130">
-        <f t="shared" si="1"/>
-        <v>53.398058252427184</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C131" s="1">
-        <v>1</v>
-      </c>
       <c r="D131" s="1">
-        <v>0.2</v>
+        <v>0.37</v>
       </c>
       <c r="E131">
-        <v>5.62</v>
+        <v>4.12</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="2">D131/E131*1000</f>
-        <v>35.587188612099645</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+        <f>D131/E131*1000</f>
+        <v>89.805825242718441</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G194" si="2">IF(F131&gt;200,"yes","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="E132">
-        <v>1.19</v>
+        <v>2.98</v>
       </c>
       <c r="F132">
+        <f>D132/E132*1000</f>
+        <v>40.268456375838923</v>
+      </c>
+      <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>147.05882352941177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C133" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D133" s="1">
-        <v>0.26500000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E133">
-        <v>2.21</v>
+        <v>2.86</v>
       </c>
       <c r="F133">
+        <f>D133/E133*1000</f>
+        <v>22.727272727272727</v>
+      </c>
+      <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>119.90950226244344</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E134">
+        <v>4.12</v>
+      </c>
+      <c r="F134">
+        <f>D134/E134*1000</f>
+        <v>12.135922330097086</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="1">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="E134">
-        <v>3.38</v>
-      </c>
-      <c r="F134">
+      <c r="D135" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E135">
+        <v>7.55</v>
+      </c>
+      <c r="F135">
+        <f>D135/E135*1000</f>
+        <v>31.788079470198674</v>
+      </c>
+      <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>60.650887573964496</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C135" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="1">
         <v>2</v>
       </c>
-      <c r="D135" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="E135">
-        <v>2.81</v>
-      </c>
-      <c r="F135">
+      <c r="D136" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E136">
+        <v>4.37</v>
+      </c>
+      <c r="F136">
+        <f>D136/E136*1000</f>
+        <v>59.496567505720826</v>
+      </c>
+      <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>53.380782918149464</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1">
-        <v>0.115</v>
-      </c>
-      <c r="E136">
-        <v>5.18</v>
-      </c>
-      <c r="F136">
-        <f t="shared" si="2"/>
-        <v>22.200772200772203</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>223</v>
@@ -4513,61 +5049,73 @@
         <v>1</v>
       </c>
       <c r="D137" s="1">
-        <v>0.22500000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="E137">
-        <v>4.13</v>
+        <v>7.55</v>
       </c>
       <c r="F137">
+        <f>D137/E137*1000</f>
+        <v>20.52980132450331</v>
+      </c>
+      <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>54.479418886198545</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C138" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D138" s="1">
-        <v>0.13500000000000001</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E138">
-        <v>4.8499999999999996</v>
+        <v>3.13</v>
       </c>
       <c r="F138">
+        <f>D138/E138*1000</f>
+        <v>75.079872204472849</v>
+      </c>
+      <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>27.835051546391757</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139" s="1">
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E139">
-        <v>4.47</v>
+        <v>3.15</v>
       </c>
       <c r="F139">
+        <f>D139/E139*1000</f>
+        <v>22.222222222222225</v>
+      </c>
+      <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>40.268456375838923</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>223</v>
@@ -4576,19 +5124,23 @@
         <v>2</v>
       </c>
       <c r="D140" s="1">
-        <v>0.105</v>
+        <v>0.42</v>
       </c>
       <c r="E140">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="F140">
+        <f>D140/E140*1000</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>27.27272727272727</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>223</v>
@@ -4597,670 +5149,798 @@
         <v>3</v>
       </c>
       <c r="D141" s="1">
-        <v>0.125</v>
+        <v>0.105</v>
       </c>
       <c r="E141">
-        <v>3.73</v>
+        <v>3.28</v>
       </c>
       <c r="F141">
+        <f>D141/E141*1000</f>
+        <v>32.012195121951223</v>
+      </c>
+      <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>33.512064343163537</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C142" s="1">
         <v>1</v>
       </c>
       <c r="D142" s="1">
-        <v>0.125</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="E142">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="F142">
+        <f>D142/E142*1000</f>
+        <v>116.43835616438355</v>
+      </c>
+      <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>68.681318681318672</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C143" s="1">
         <v>2</v>
       </c>
       <c r="D143" s="1">
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="E143">
-        <v>3.05</v>
+        <v>3.71</v>
       </c>
       <c r="F143">
+        <f>D143/E143*1000</f>
+        <v>102.42587601078168</v>
+      </c>
+      <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>26.229508196721316</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C144" s="1">
         <v>1</v>
       </c>
       <c r="D144" s="1">
-        <v>0.23499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="E144">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="F144">
+        <f>D144/E144*1000</f>
+        <v>42.465753424657535</v>
+      </c>
+      <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>58.02469135802469</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C145" s="1">
         <v>2</v>
       </c>
       <c r="D145" s="1">
-        <v>0.215</v>
+        <v>0.125</v>
       </c>
       <c r="E145">
-        <v>5.96</v>
+        <v>3.71</v>
       </c>
       <c r="F145">
+        <f>D145/E145*1000</f>
+        <v>33.692722371967655</v>
+      </c>
+      <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>36.0738255033557</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C146" s="1">
         <v>3</v>
       </c>
       <c r="D146" s="1">
-        <v>0.16500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E146">
-        <v>4.78</v>
+        <v>1.19</v>
       </c>
       <c r="F146">
+        <f>D146/E146*1000</f>
+        <v>147.05882352941177</v>
+      </c>
+      <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>34.518828451882847</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
       <c r="D147" s="1">
-        <v>0.33500000000000002</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="E147">
-        <v>2.5499999999999998</v>
+        <v>5.4</v>
       </c>
       <c r="F147">
+        <f>D147/E147*1000</f>
+        <v>63.888888888888886</v>
+      </c>
+      <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>131.37254901960785</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C148" s="1">
         <v>2</v>
       </c>
       <c r="D148" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>0.245</v>
       </c>
       <c r="E148">
-        <v>2.4900000000000002</v>
+        <v>7.45</v>
       </c>
       <c r="F148">
+        <f>D148/E148*1000</f>
+        <v>32.885906040268452</v>
+      </c>
+      <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>10.040160642570282</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C149" s="1">
         <v>3</v>
       </c>
       <c r="D149" s="1">
-        <v>0.15</v>
+        <v>0.375</v>
       </c>
       <c r="E149">
-        <v>2.71</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F149">
+        <f>D149/E149*1000</f>
+        <v>74.701195219123505</v>
+      </c>
+      <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>55.350553505535053</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E150">
-        <v>2.8</v>
+        <v>7.45</v>
       </c>
       <c r="F150">
+        <f>D150/E150*1000</f>
+        <v>9.3959731543624176</v>
+      </c>
+      <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>25.000000000000004</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C151" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" s="1">
-        <v>0.255</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E151">
-        <v>4</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F151">
+        <f>D151/E151*1000</f>
+        <v>12.948207171314744</v>
+      </c>
+      <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>63.75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C152" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D152" s="1">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="E152">
-        <v>4.1900000000000004</v>
+        <v>1.32</v>
       </c>
       <c r="F152">
+        <f>D152/E152*1000</f>
+        <v>30.303030303030305</v>
+      </c>
+      <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>50.119331742243432</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
       </c>
       <c r="D153" s="1">
-        <v>0.255</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="E153">
-        <v>3.71</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F153">
+        <f>D153/E153*1000</f>
+        <v>47.959183673469383</v>
+      </c>
+      <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>68.733153638814017</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C154" s="1">
         <v>2</v>
       </c>
       <c r="D154" s="1">
-        <v>0.155</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E154">
-        <v>2.76</v>
+        <v>3.48</v>
       </c>
       <c r="F154">
+        <f>D154/E154*1000</f>
+        <v>24.425287356321842</v>
+      </c>
+      <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>56.159420289855078</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C155" s="1">
         <v>3</v>
       </c>
       <c r="D155" s="1">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="E155">
-        <v>3.53</v>
+        <v>4.03</v>
       </c>
       <c r="F155">
+        <f>D155/E155*1000</f>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>31.161473087818699</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C156" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156" s="1">
-        <v>0.12</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E156">
-        <v>2.98</v>
+        <v>3.48</v>
       </c>
       <c r="F156">
+        <f>D156/E156*1000</f>
+        <v>50.287356321839077</v>
+      </c>
+      <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>40.268456375838923</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D157" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E157">
-        <v>2.86</v>
+        <v>4.03</v>
       </c>
       <c r="F157">
+        <f>D157/E157*1000</f>
+        <v>18.610421836228287</v>
+      </c>
+      <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>22.727272727272727</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C158" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D158" s="1">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="E158">
-        <v>4.12</v>
+        <v>1.48</v>
       </c>
       <c r="F158">
+        <f>D158/E158*1000</f>
+        <v>60.810810810810807</v>
+      </c>
+      <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>12.135922330097086</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C159" s="1">
         <v>1</v>
       </c>
       <c r="D159" s="1">
-        <v>0.155</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E159">
-        <v>7.55</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F159">
+        <f>D159/E159*1000</f>
+        <v>98.308668076109939</v>
+      </c>
+      <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>20.52980132450331</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C160" s="1">
         <v>1</v>
       </c>
       <c r="D160" s="1">
-        <v>0.23499999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E160">
-        <v>3.13</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F160">
+        <f>D160/E160*1000</f>
+        <v>7.3995771670190269</v>
+      </c>
+      <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>75.079872204472849</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D161" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.115</v>
       </c>
       <c r="E161">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="F161">
+        <f>D161/E161*1000</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>22.222222222222225</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C162" s="1">
         <v>2</v>
       </c>
       <c r="D162" s="1">
-        <v>0.42</v>
+        <v>0.19</v>
       </c>
       <c r="E162">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="F162">
+        <f>D162/E162*1000</f>
+        <v>56.379821958456972</v>
+      </c>
+      <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C163" s="1">
         <v>3</v>
       </c>
       <c r="D163" s="1">
-        <v>0.105</v>
+        <v>0.23</v>
       </c>
       <c r="E163">
-        <v>3.28</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F163">
+        <f>D163/E163*1000</f>
+        <v>51.801801801801801</v>
+      </c>
+      <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>32.012195121951223</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C164" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D164" s="1">
-        <v>0.155</v>
+        <v>0.2</v>
       </c>
       <c r="E164">
-        <v>3.65</v>
+        <v>3.37</v>
       </c>
       <c r="F164">
+        <f>D164/E164*1000</f>
+        <v>59.347181008902076</v>
+      </c>
+      <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>42.465753424657535</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C165" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D165" s="1">
-        <v>0.125</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="E165">
-        <v>3.71</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="F165">
+        <f>D165/E165*1000</f>
+        <v>68.693693693693689</v>
+      </c>
+      <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>33.692722371967655</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C166" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="E166">
-        <v>1.19</v>
+        <v>5.76</v>
       </c>
       <c r="F166">
+        <f>D166/E166*1000</f>
+        <v>46.00694444444445</v>
+      </c>
+      <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>147.05882352941177</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C167" s="1">
         <v>2</v>
       </c>
       <c r="D167" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.34</v>
       </c>
       <c r="E167">
-        <v>7.45</v>
+        <v>5.12</v>
       </c>
       <c r="F167">
+        <f>D167/E167*1000</f>
+        <v>66.40625</v>
+      </c>
+      <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>9.3959731543624176</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C168" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D168" s="1">
-        <v>6.5000000000000002E-2</v>
+        <v>0.2</v>
       </c>
       <c r="E168">
-        <v>5.0199999999999996</v>
+        <v>5.76</v>
       </c>
       <c r="F168">
+        <f>D168/E168*1000</f>
+        <v>34.722222222222221</v>
+      </c>
+      <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>12.948207171314744</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C169" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D169" s="1">
-        <v>0.04</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E169">
-        <v>1.32</v>
+        <v>5.12</v>
       </c>
       <c r="F169">
+        <f>D169/E169*1000</f>
+        <v>34.1796875</v>
+      </c>
+      <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>30.303030303030305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C170" s="1">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E170">
+        <v>3.3</v>
+      </c>
+      <c r="F170">
+        <f>D170/E170*1000</f>
+        <v>28.787878787878789</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="1">
         <v>2</v>
       </c>
-      <c r="D170" s="1">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E170">
-        <v>3.48</v>
-      </c>
-      <c r="F170">
+      <c r="D171" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E171">
+        <v>3.66</v>
+      </c>
+      <c r="F171">
+        <f>D171/E171*1000</f>
+        <v>65.573770491803273</v>
+      </c>
+      <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>50.287356321839077</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C171" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="1">
         <v>3</v>
       </c>
-      <c r="D171" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E171">
-        <v>4.03</v>
-      </c>
-      <c r="F171">
+      <c r="D172" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E172">
+        <v>3.71</v>
+      </c>
+      <c r="F172">
+        <f>D172/E172*1000</f>
+        <v>67.385444743935309</v>
+      </c>
+      <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>18.610421836228287</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C172" s="1">
-        <v>4</v>
-      </c>
-      <c r="D172" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="E172">
-        <v>1.48</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="2"/>
-        <v>60.810810810810807</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>224</v>
@@ -5269,19 +5949,23 @@
         <v>1</v>
       </c>
       <c r="D173" s="1">
-        <v>3.5000000000000003E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E173">
-        <v>4.7300000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="F173">
+        <f>D173/E173*1000</f>
+        <v>43.939393939393938</v>
+      </c>
+      <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>7.3995771670190269</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>224</v>
@@ -5290,19 +5974,23 @@
         <v>2</v>
       </c>
       <c r="D174" s="1">
-        <v>0.2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="E174">
-        <v>3.37</v>
+        <v>3.66</v>
       </c>
       <c r="F174">
+        <f>D174/E174*1000</f>
+        <v>39.617486338797811</v>
+      </c>
+      <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>59.347181008902076</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>224</v>
@@ -5311,122 +5999,146 @@
         <v>3</v>
       </c>
       <c r="D175" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="E175">
-        <v>4.4400000000000004</v>
+        <v>3.71</v>
       </c>
       <c r="F175">
+        <f>D175/E175*1000</f>
+        <v>32.345013477088948</v>
+      </c>
+      <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>68.693693693693689</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
       </c>
       <c r="D176" s="1">
-        <v>0.2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="E176">
-        <v>5.76</v>
+        <v>3.1</v>
       </c>
       <c r="F176">
+        <f>D176/E176*1000</f>
+        <v>53.225806451612904</v>
+      </c>
+      <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>34.722222222222221</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C177" s="1">
         <v>2</v>
       </c>
       <c r="D177" s="1">
-        <v>0.17499999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="E177">
-        <v>5.12</v>
+        <v>4.07</v>
       </c>
       <c r="F177">
+        <f>D177/E177*1000</f>
+        <v>27.027027027027025</v>
+      </c>
+      <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>34.1796875</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
       </c>
       <c r="C178" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D178" s="1">
-        <v>0.14499999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="E178">
-        <v>3.3</v>
+        <v>2.66</v>
       </c>
       <c r="F178">
+        <f>D178/E178*1000</f>
+        <v>16.917293233082706</v>
+      </c>
+      <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>43.939393939393938</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C179" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D179" s="1">
-        <v>0.14499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="E179">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="F179">
+        <f>D179/E179*1000</f>
+        <v>40.322580645161288</v>
+      </c>
+      <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>39.617486338797811</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C180" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" s="1">
-        <v>0.12</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E180">
-        <v>3.71</v>
+        <v>4.07</v>
       </c>
       <c r="F180">
+        <f>D180/E180*1000</f>
+        <v>20.884520884520885</v>
+      </c>
+      <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>32.345013477088948</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>33</v>
       </c>
@@ -5434,62 +6146,74 @@
         <v>224</v>
       </c>
       <c r="C181" s="1">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E181">
+        <v>2.66</v>
+      </c>
+      <c r="F181">
+        <f>D181/E181*1000</f>
+        <v>58.270676691729321</v>
+      </c>
+      <c r="G181" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C182" s="1">
         <v>1</v>
       </c>
-      <c r="D181" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="E181">
-        <v>3.1</v>
-      </c>
-      <c r="F181">
+      <c r="D182" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="E182">
+        <v>2.89</v>
+      </c>
+      <c r="F182">
+        <f>D182/E182*1000</f>
+        <v>62.283737024221452</v>
+      </c>
+      <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>40.322580645161288</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C182" s="1">
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C183" s="1">
         <v>2</v>
       </c>
-      <c r="D182" s="1">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E182">
-        <v>4.07</v>
-      </c>
-      <c r="F182">
+      <c r="D183" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E183">
+        <v>4.49</v>
+      </c>
+      <c r="F183">
+        <f>D183/E183*1000</f>
+        <v>52.338530066815139</v>
+      </c>
+      <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>20.884520884520885</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C183" s="1">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1">
-        <v>0.155</v>
-      </c>
-      <c r="E183">
-        <v>2.66</v>
-      </c>
-      <c r="F183">
-        <f t="shared" si="2"/>
-        <v>58.270676691729321</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>34</v>
       </c>
@@ -5506,11 +6230,15 @@
         <v>2.89</v>
       </c>
       <c r="F184">
+        <f>D184/E184*1000</f>
+        <v>44.982698961937722</v>
+      </c>
+      <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>44.982698961937722</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>57</v>
       </c>
@@ -5527,11 +6255,15 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="F185">
+        <f>D185/E185*1000</f>
+        <v>104.47761194029852</v>
+      </c>
+      <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>104.47761194029852</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>57</v>
       </c>
@@ -5548,11 +6280,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="F186">
+        <f>D186/E186*1000</f>
+        <v>64.22018348623854</v>
+      </c>
+      <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>64.22018348623854</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>57</v>
       </c>
@@ -5569,11 +6305,15 @@
         <v>2.48</v>
       </c>
       <c r="F187">
+        <f>D187/E187*1000</f>
+        <v>64.516129032258064</v>
+      </c>
+      <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>64.516129032258064</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>58</v>
       </c>
@@ -5590,11 +6330,15 @@
         <v>5.97</v>
       </c>
       <c r="F188">
+        <f>D188/E188*1000</f>
+        <v>59.463986599664985</v>
+      </c>
+      <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>59.463986599664985</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>58</v>
       </c>
@@ -5611,11 +6355,15 @@
         <v>5.97</v>
       </c>
       <c r="F189">
+        <f>D189/E189*1000</f>
+        <v>42.713567839195981</v>
+      </c>
+      <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>42.713567839195981</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>58</v>
       </c>
@@ -5632,11 +6380,15 @@
         <v>1.19</v>
       </c>
       <c r="F190">
+        <f>D190/E190*1000</f>
+        <v>117.64705882352942</v>
+      </c>
+      <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>117.64705882352942</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>58</v>
       </c>
@@ -5653,11 +6405,15 @@
         <v>3.33</v>
       </c>
       <c r="F191">
+        <f>D191/E191*1000</f>
+        <v>60.06006006006006</v>
+      </c>
+      <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>60.06006006006006</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>58</v>
       </c>
@@ -5674,11 +6430,15 @@
         <v>3.32</v>
       </c>
       <c r="F192">
+        <f>D192/E192*1000</f>
+        <v>96.385542168674704</v>
+      </c>
+      <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>96.385542168674704</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>59</v>
       </c>
@@ -5695,11 +6455,15 @@
         <v>1.93</v>
       </c>
       <c r="F193">
+        <f>D193/E193*1000</f>
+        <v>101.03626943005183</v>
+      </c>
+      <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>101.03626943005183</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>59</v>
       </c>
@@ -5716,11 +6480,15 @@
         <v>2.25</v>
       </c>
       <c r="F194">
+        <f>D194/E194*1000</f>
+        <v>28.888888888888889</v>
+      </c>
+      <c r="G194" t="str">
         <f t="shared" si="2"/>
-        <v>28.888888888888889</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>59</v>
       </c>
@@ -5737,11 +6505,15 @@
         <v>1.77</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F204" si="3">D195/E195*1000</f>
+        <f>D195/E195*1000</f>
         <v>45.197740112994353</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G195" t="str">
+        <f t="shared" ref="G195:G236" si="3">IF(F195&gt;200,"yes","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>60</v>
       </c>
@@ -5758,11 +6530,15 @@
         <v>2.39</v>
       </c>
       <c r="F196">
+        <f>D196/E196*1000</f>
+        <v>50.209205020920493</v>
+      </c>
+      <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>50.209205020920493</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>60</v>
       </c>
@@ -5779,11 +6555,15 @@
         <v>2.94</v>
       </c>
       <c r="F197">
+        <f>D197/E197*1000</f>
+        <v>57.823129251700685</v>
+      </c>
+      <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>57.823129251700685</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>60</v>
       </c>
@@ -5800,11 +6580,15 @@
         <v>3.46</v>
       </c>
       <c r="F198">
+        <f>D198/E198*1000</f>
+        <v>14.450867052023122</v>
+      </c>
+      <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>14.450867052023122</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>61</v>
       </c>
@@ -5821,11 +6605,15 @@
         <v>2.86</v>
       </c>
       <c r="F199">
+        <f>D199/E199*1000</f>
+        <v>64.685314685314694</v>
+      </c>
+      <c r="G199" t="str">
         <f t="shared" si="3"/>
-        <v>64.685314685314694</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>61</v>
       </c>
@@ -5842,11 +6630,15 @@
         <v>3.01</v>
       </c>
       <c r="F200">
+        <f>D200/E200*1000</f>
+        <v>93.023255813953497</v>
+      </c>
+      <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>93.023255813953497</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>61</v>
       </c>
@@ -5863,11 +6655,15 @@
         <v>3.28</v>
       </c>
       <c r="F201">
+        <f>D201/E201*1000</f>
+        <v>62.5</v>
+      </c>
+      <c r="G201" t="str">
         <f t="shared" si="3"/>
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>62</v>
       </c>
@@ -5884,11 +6680,15 @@
         <v>1.56</v>
       </c>
       <c r="F202">
+        <f>D202/E202*1000</f>
+        <v>86.538461538461533</v>
+      </c>
+      <c r="G202" t="str">
         <f t="shared" si="3"/>
-        <v>86.538461538461533</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>62</v>
       </c>
@@ -5896,41 +6696,854 @@
         <v>224</v>
       </c>
       <c r="C203" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203" s="1">
-        <v>0.16</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E203">
-        <v>0.33</v>
+        <v>1.02</v>
       </c>
       <c r="F203">
+        <f>D203/E203*1000</f>
+        <v>132.35294117647058</v>
+      </c>
+      <c r="G203" t="str">
         <f t="shared" si="3"/>
-        <v>484.84848484848487</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C204" s="2">
+        <v>1</v>
+      </c>
+      <c r="D204" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E204">
+        <v>1.47</v>
+      </c>
+      <c r="F204">
+        <f t="shared" ref="F204:F236" si="4">D204/E204*1000</f>
+        <v>20.408163265306122</v>
+      </c>
+      <c r="G204" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1</v>
+      </c>
+      <c r="D205" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="E205">
+        <v>3.32</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="4"/>
+        <v>57.228915662650607</v>
+      </c>
+      <c r="G205" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C206" s="2">
+        <v>2</v>
+      </c>
+      <c r="D206" s="1">
+        <v>0.155</v>
+      </c>
+      <c r="E206">
+        <v>3.94</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="4"/>
+        <v>39.340101522842637</v>
+      </c>
+      <c r="G206" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C207" s="2">
+        <v>1</v>
+      </c>
+      <c r="D207" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E207">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="4"/>
+        <v>33.864541832669325</v>
+      </c>
+      <c r="G207" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C208" s="2">
+        <v>2</v>
+      </c>
+      <c r="D208" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E208">
+        <v>2.98</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="4"/>
+        <v>67.114093959731548</v>
+      </c>
+      <c r="G208" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C209" s="2">
         <v>3</v>
       </c>
-      <c r="D204" s="1">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="E204">
-        <v>1.02</v>
-      </c>
-      <c r="F204">
+      <c r="D209" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E209">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="4"/>
+        <v>28.017241379310349</v>
+      </c>
+      <c r="G209" t="str">
         <f t="shared" si="3"/>
-        <v>132.35294117647058</v>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C210" s="2">
+        <v>1</v>
+      </c>
+      <c r="D210" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E210">
+        <v>4.54</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="4"/>
+        <v>53.964757709251096</v>
+      </c>
+      <c r="G210" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="2">
+        <v>2</v>
+      </c>
+      <c r="D211" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E211">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="4"/>
+        <v>37.58542141230069</v>
+      </c>
+      <c r="G211" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C212" s="2">
+        <v>3</v>
+      </c>
+      <c r="D212" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="E212">
+        <v>4.37</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="4"/>
+        <v>73.226544622425635</v>
+      </c>
+      <c r="G212" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C213" s="2">
+        <v>1</v>
+      </c>
+      <c r="D213" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E213">
+        <v>3.44</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="4"/>
+        <v>78.488372093023258</v>
+      </c>
+      <c r="G213" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214" s="2">
+        <v>2</v>
+      </c>
+      <c r="D214" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E214">
+        <v>4.18</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="4"/>
+        <v>72.966507177033492</v>
+      </c>
+      <c r="G214" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C215" s="2">
+        <v>3</v>
+      </c>
+      <c r="D215" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="4"/>
+        <v>62.5</v>
+      </c>
+      <c r="G215" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D216" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E216">
+        <v>2.63</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="4"/>
+        <v>93.155893536121681</v>
+      </c>
+      <c r="G216" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C217" s="2">
+        <v>2</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="E217">
+        <v>1.99</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="4"/>
+        <v>92.964824120603012</v>
+      </c>
+      <c r="G217" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C218" s="2">
+        <v>3</v>
+      </c>
+      <c r="D218" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E218">
+        <v>2.09</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="4"/>
+        <v>117.22488038277513</v>
+      </c>
+      <c r="G218" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C219" s="2">
+        <v>1</v>
+      </c>
+      <c r="D219" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E219">
+        <v>2.98</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="4"/>
+        <v>65.436241610738264</v>
+      </c>
+      <c r="G219" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D220" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="E220">
+        <v>2.6</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="G220" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C221" s="2">
+        <v>3</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E221">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="4"/>
+        <v>9.8039215686274535</v>
+      </c>
+      <c r="G221" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" s="2">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E222">
+        <v>2.83</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="4"/>
+        <v>60.070671378091873</v>
+      </c>
+      <c r="G222" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" s="2">
+        <v>5</v>
+      </c>
+      <c r="D223" s="1">
+        <v>0.215</v>
+      </c>
+      <c r="E223">
+        <v>3.11</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="4"/>
+        <v>69.131832797427663</v>
+      </c>
+      <c r="G223" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C224" s="2">
+        <v>1</v>
+      </c>
+      <c r="D224" s="1">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E224">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="4"/>
+        <v>96.707818930041142</v>
+      </c>
+      <c r="G224" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E225">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="4"/>
+        <v>121.654501216545</v>
+      </c>
+      <c r="G225" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D226" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E226">
+        <v>2.68</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="4"/>
+        <v>72.761194029850742</v>
+      </c>
+      <c r="G226" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C227" s="2">
+        <v>2</v>
+      </c>
+      <c r="D227" s="1">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E227">
+        <v>2.37</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="4"/>
+        <v>154.00843881856537</v>
+      </c>
+      <c r="G227" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C228" s="2">
+        <v>3</v>
+      </c>
+      <c r="D228" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="E228">
+        <v>1.78</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="4"/>
+        <v>61.797752808988761</v>
+      </c>
+      <c r="G228" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C229" s="2">
+        <v>1</v>
+      </c>
+      <c r="D229" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E229">
+        <v>4.29</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="4"/>
+        <v>53.613053613053616</v>
+      </c>
+      <c r="G229" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C230" s="2">
+        <v>2</v>
+      </c>
+      <c r="D230" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="E230">
+        <v>2.93</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="4"/>
+        <v>51.194539249146757</v>
+      </c>
+      <c r="G230" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C231" s="2">
+        <v>3</v>
+      </c>
+      <c r="D231" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="E231">
+        <v>1.79</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="4"/>
+        <v>94.97206703910615</v>
+      </c>
+      <c r="G231" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C232" s="2">
+        <v>4</v>
+      </c>
+      <c r="D232" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="E232">
+        <v>3.18</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="4"/>
+        <v>66.037735849056602</v>
+      </c>
+      <c r="G232" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C233" s="2">
+        <v>5</v>
+      </c>
+      <c r="D233" s="1">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E233">
+        <v>2.88</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="4"/>
+        <v>67.708333333333343</v>
+      </c>
+      <c r="G233" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C234" s="2">
+        <v>1</v>
+      </c>
+      <c r="D234" s="1">
+        <v>0.185</v>
+      </c>
+      <c r="E234">
+        <v>2.31</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="4"/>
+        <v>80.086580086580085</v>
+      </c>
+      <c r="G234" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C235" s="2">
+        <v>2</v>
+      </c>
+      <c r="D235" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="E235">
+        <v>1.97</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="4"/>
+        <v>124.36548223350253</v>
+      </c>
+      <c r="G235" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C236" s="2">
+        <v>3</v>
+      </c>
+      <c r="D236" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="E236">
+        <v>2.83</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="4"/>
+        <v>37.102473498233216</v>
+      </c>
+      <c r="G236" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F203">
+    <sortCondition ref="A2:A203"/>
+    <sortCondition ref="B2:B203"/>
+    <sortCondition ref="C2:C203"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/thread_strength/summarized_data/summary.xlsx
+++ b/thread_strength/summarized_data/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateofwa-my.sharepoint.com/personal/matthew_george_dfw_wa_gov/Documents/Desktop/PSMFC-mytilus-byssus-pilot/thread_strength/summarized_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{8AE7D653-D916-4121-B2A3-8A10433B0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA803264-056D-4DB2-9191-4E3AA9301906}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{8AE7D653-D916-4121-B2A3-8A10433B0825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FC143A-7B18-45ED-BEFE-4D5920EB436C}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="rna" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$L$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="594">
   <si>
     <t>mussel</t>
   </si>
@@ -1755,12 +1755,6 @@
   </si>
   <si>
     <t>combo_ID</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Value changed from 0.15</t>
   </si>
   <si>
     <t>T134_6</t>
@@ -2166,11 +2160,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98224DF2-ACA2-4B22-9DE6-3F5BF47F61D1}">
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:L238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K173" sqref="A173:K173"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K218" sqref="F218:K218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,10 +2181,9 @@
     <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>572</v>
       </c>
@@ -2222,16 +2215,13 @@
         <v>334</v>
       </c>
       <c r="K1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="M1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>338</v>
       </c>
@@ -2263,14 +2253,14 @@
         <v>335</v>
       </c>
       <c r="K2">
-        <f>E2/G2*1000</f>
+        <f t="shared" ref="K2:K65" si="0">E2/G2*1000</f>
         <v>40.748898678414093</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -2302,14 +2292,14 @@
         <v>335</v>
       </c>
       <c r="K3">
-        <f>E3/G3*1000</f>
+        <f t="shared" si="0"/>
         <v>29.508196721311478</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -2341,14 +2331,14 @@
         <v>336</v>
       </c>
       <c r="K4">
-        <f>E4/G4*1000</f>
+        <f t="shared" si="0"/>
         <v>68.965517241379317</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -2380,14 +2370,14 @@
         <v>336</v>
       </c>
       <c r="K5">
-        <f>E5/G5*1000</f>
+        <f t="shared" si="0"/>
         <v>75.569358178053818</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -2419,14 +2409,14 @@
         <v>143</v>
       </c>
       <c r="K6">
-        <f>E6/G6*1000</f>
+        <f t="shared" si="0"/>
         <v>57.239057239057239</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -2458,14 +2448,14 @@
         <v>143</v>
       </c>
       <c r="K7">
-        <f>E7/G7*1000</f>
+        <f t="shared" si="0"/>
         <v>64.327485380116968</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -2497,14 +2487,14 @@
         <v>335</v>
       </c>
       <c r="K8">
-        <f>E8/G8*1000</f>
+        <f t="shared" si="0"/>
         <v>58.052434456928843</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>346</v>
       </c>
@@ -2536,14 +2526,14 @@
         <v>143</v>
       </c>
       <c r="K9">
-        <f>E9/G9*1000</f>
+        <f t="shared" si="0"/>
         <v>88.390501319261219</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>347</v>
       </c>
@@ -2575,73 +2565,73 @@
         <v>335</v>
       </c>
       <c r="K10">
-        <f>E10/G10*1000</f>
+        <f t="shared" si="0"/>
         <v>55.05952380952381</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.215</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F11">
-        <v>0.13996957374013699</v>
+        <v>0.58103712528358997</v>
       </c>
       <c r="G11">
-        <v>5.22</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
         <v>336</v>
       </c>
       <c r="K11">
-        <f>E11/G11*1000</f>
-        <v>41.187739463601531</v>
+        <f t="shared" si="0"/>
+        <v>110.44176706827309</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.27500000000000002</v>
+        <v>0.215</v>
       </c>
       <c r="F12">
-        <v>0.58103712528358997</v>
+        <v>0.443745404510893</v>
       </c>
       <c r="G12">
-        <v>2.4900000000000002</v>
+        <v>2.91</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
@@ -2650,37 +2640,37 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K12">
-        <f>E12/G12*1000</f>
-        <v>110.44176706827309</v>
+        <f t="shared" si="0"/>
+        <v>73.883161512027499</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0.215</v>
+        <v>0.19</v>
       </c>
       <c r="F13">
-        <v>0.443745404510893</v>
+        <v>0.43058540768611597</v>
       </c>
       <c r="G13">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -2692,34 +2682,34 @@
         <v>335</v>
       </c>
       <c r="K13">
-        <f>E13/G13*1000</f>
-        <v>73.883161512027499</v>
+        <f t="shared" si="0"/>
+        <v>60.509554140127392</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0.19</v>
+        <v>0.115</v>
       </c>
       <c r="F14">
-        <v>0.43058540768611597</v>
+        <v>0.135134717160769</v>
       </c>
       <c r="G14">
-        <v>3.14</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -2731,73 +2721,73 @@
         <v>335</v>
       </c>
       <c r="K14">
-        <f>E14/G14*1000</f>
-        <v>60.509554140127392</v>
+        <f t="shared" si="0"/>
+        <v>65.340909090909093</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>0.34499999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="F15">
-        <v>0.73041979127538803</v>
+        <v>0.24043951504779201</v>
       </c>
       <c r="G15">
-        <v>7.26</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>335</v>
       </c>
       <c r="K15">
-        <f>E15/G15*1000</f>
-        <v>47.52066115702479</v>
+        <f t="shared" si="0"/>
+        <v>98.814229249011873</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>73</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>0.115</v>
+        <v>0.23</v>
       </c>
       <c r="F16">
-        <v>0.135134717160769</v>
+        <v>0.24552306448818501</v>
       </c>
       <c r="G16">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -2806,37 +2796,37 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K16">
-        <f>E16/G16*1000</f>
-        <v>65.340909090909093</v>
+        <f t="shared" si="0"/>
+        <v>133.72093023255815</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="F17">
-        <v>0.24043951504779201</v>
+        <v>1.69061345527425</v>
       </c>
       <c r="G17">
-        <v>2.5299999999999998</v>
+        <v>3.38</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -2845,37 +2835,37 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K17">
-        <f>E17/G17*1000</f>
-        <v>98.814229249011873</v>
+        <f t="shared" si="0"/>
+        <v>133.13609467455623</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
       <c r="F18">
-        <v>0.24552306448818501</v>
+        <v>0.75602343501464098</v>
       </c>
       <c r="G18">
-        <v>1.72</v>
+        <v>3.39</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -2887,151 +2877,151 @@
         <v>143</v>
       </c>
       <c r="K18">
-        <f>E18/G18*1000</f>
-        <v>133.72093023255815</v>
+        <f t="shared" si="0"/>
+        <v>120.94395280235986</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.17</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
-        <v>0.24096482781065101</v>
+        <v>0.66796781728110599</v>
       </c>
       <c r="G19">
-        <v>2.81</v>
+        <v>5.99</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K19">
-        <f>E19/G19*1000</f>
-        <v>60.4982206405694</v>
+        <f t="shared" si="0"/>
+        <v>50.083472454090142</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.17</v>
+      </c>
+      <c r="F20">
+        <v>0.37068239291806698</v>
+      </c>
+      <c r="G20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>0.215</v>
-      </c>
-      <c r="F20">
-        <v>0.19078524522906201</v>
-      </c>
-      <c r="G20">
-        <v>2.91</v>
-      </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K20">
-        <f>E20/G20*1000</f>
-        <v>73.883161512027499</v>
+        <f t="shared" si="0"/>
+        <v>85</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
+        <v>0.185</v>
       </c>
       <c r="F21">
-        <v>4.7829439808670798E-2</v>
+        <v>0.27370888779821401</v>
       </c>
       <c r="G21">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K21">
-        <f>E21/G21*1000</f>
-        <v>32.051282051282058</v>
+        <f t="shared" si="0"/>
+        <v>106.93641618497109</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B22" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0.45</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F22">
-        <v>1.69061345527425</v>
+        <v>0.378439447746792</v>
       </c>
       <c r="G22">
-        <v>3.38</v>
+        <v>1.63</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -3043,34 +3033,34 @@
         <v>143</v>
       </c>
       <c r="K22">
-        <f>E22/G22*1000</f>
-        <v>133.13609467455623</v>
+        <f t="shared" si="0"/>
+        <v>101.22699386503069</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.41</v>
+        <v>0.51</v>
       </c>
       <c r="F23">
-        <v>0.75602343501464098</v>
+        <v>2.0000411926924802</v>
       </c>
       <c r="G23">
-        <v>3.39</v>
+        <v>4.54</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -3082,34 +3072,34 @@
         <v>143</v>
       </c>
       <c r="K23">
-        <f>E23/G23*1000</f>
-        <v>120.94395280235986</v>
+        <f t="shared" si="0"/>
+        <v>112.33480176211454</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0.3</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="F24">
-        <v>0.66796781728110599</v>
+        <v>0.79349665565729199</v>
       </c>
       <c r="G24">
-        <v>5.99</v>
+        <v>3.39</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -3118,154 +3108,154 @@
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K24">
-        <f>E24/G24*1000</f>
-        <v>50.083472454090142</v>
+        <f t="shared" si="0"/>
+        <v>98.820058997050154</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>0.49</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F25">
-        <v>1.60727912516422</v>
+        <v>0.21042009292210101</v>
       </c>
       <c r="G25">
-        <v>4.38</v>
+        <v>3.36</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K25">
-        <f>E25/G25*1000</f>
-        <v>111.87214611872146</v>
+        <f t="shared" si="0"/>
+        <v>61.011904761904759</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0.22500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="F26">
-        <v>0.21237162158394701</v>
+        <v>0.52346411179487196</v>
       </c>
       <c r="G26">
-        <v>4.5199999999999996</v>
+        <v>2.69</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K26">
-        <f>E26/G26*1000</f>
-        <v>49.778761061946909</v>
+        <f t="shared" si="0"/>
+        <v>118.95910780669146</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.22500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="F27">
-        <v>0.27942967563971299</v>
+        <v>0.28805482522275</v>
       </c>
       <c r="G27">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K27">
-        <f>E27/G27*1000</f>
-        <v>74.750830564784053</v>
+        <f t="shared" si="0"/>
+        <v>70.739549839228303</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="F28">
-        <v>0.37068239291806698</v>
+        <v>0.49293459906151199</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -3277,34 +3267,34 @@
         <v>335</v>
       </c>
       <c r="K28">
-        <f>E28/G28*1000</f>
-        <v>85</v>
+        <f t="shared" si="0"/>
+        <v>107.43801652892563</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0.185</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F29">
-        <v>0.27370888779821401</v>
+        <v>0.10148659852088</v>
       </c>
       <c r="G29">
-        <v>1.73</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
@@ -3316,34 +3306,34 @@
         <v>335</v>
       </c>
       <c r="K29">
-        <f>E29/G29*1000</f>
-        <v>106.93641618497109</v>
+        <f t="shared" si="0"/>
+        <v>40.845070422535215</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0.16500000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F30">
-        <v>0.378439447746792</v>
+        <v>8.4310382573428003E-2</v>
       </c>
       <c r="G30">
-        <v>1.63</v>
+        <v>2.88</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
@@ -3352,193 +3342,193 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K30">
-        <f>E30/G30*1000</f>
-        <v>101.22699386503069</v>
+        <f t="shared" si="0"/>
+        <v>48.611111111111121</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31">
-        <v>5.4917041087909201E-2</v>
+        <v>3.50850902805546E-2</v>
       </c>
       <c r="G31">
-        <v>1.62</v>
+        <v>2.91</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J31" t="s">
         <v>335</v>
       </c>
       <c r="K31">
-        <f>E31/G31*1000</f>
-        <v>61.728395061728392</v>
+        <f t="shared" si="0"/>
+        <v>24.054982817869416</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>0.28499999999999998</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F32">
-        <v>0.31426907128048698</v>
+        <v>0.23447140373866299</v>
       </c>
       <c r="G32">
-        <v>2.8</v>
+        <v>3.39</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K32">
-        <f>E32/G32*1000</f>
-        <v>101.78571428571429</v>
+        <f t="shared" si="0"/>
+        <v>69.321533923303832</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0.185</v>
       </c>
       <c r="F33">
-        <v>0.12819486641816899</v>
+        <v>0.245195530451986</v>
       </c>
       <c r="G33">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K33">
-        <f>E33/G33*1000</f>
-        <v>70.075757575757564</v>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="F34">
-        <v>9.1386390243902493E-2</v>
+        <v>0.98072133152208396</v>
       </c>
       <c r="G34">
-        <v>2.74</v>
+        <v>3.87</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K34">
-        <f>E34/G34*1000</f>
-        <v>32.846715328467148</v>
+        <f t="shared" si="0"/>
+        <v>67.183462532299743</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.51</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="F35">
-        <v>2.0000411926924802</v>
+        <v>1.47077025787491</v>
       </c>
       <c r="G35">
-        <v>4.54</v>
+        <v>2.76</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
@@ -3547,37 +3537,37 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K35">
-        <f>E35/G35*1000</f>
-        <v>112.33480176211454</v>
+        <f t="shared" si="0"/>
+        <v>161.23188405797103</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>0.33500000000000002</v>
+        <v>0.27</v>
       </c>
       <c r="F36">
-        <v>0.79349665565729199</v>
+        <v>0.51989839090909096</v>
       </c>
       <c r="G36">
-        <v>3.39</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
@@ -3586,37 +3576,37 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K36">
-        <f>E36/G36*1000</f>
-        <v>98.820058997050154</v>
+        <f t="shared" si="0"/>
+        <v>71.052631578947384</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37">
-        <v>0.20499999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="F37">
-        <v>0.21042009292210101</v>
+        <v>1.70848243847461</v>
       </c>
       <c r="G37">
-        <v>3.36</v>
+        <v>2.9</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -3625,154 +3615,154 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K37">
-        <f>E37/G37*1000</f>
-        <v>61.011904761904759</v>
+        <f t="shared" si="0"/>
+        <v>170.68965517241381</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.22500000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="F38">
-        <v>0.216389235135135</v>
+        <v>2.1866456329561599</v>
       </c>
       <c r="G38">
-        <v>3.25</v>
+        <v>5.62</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K38">
-        <f>E38/G38*1000</f>
-        <v>69.230769230769241</v>
+        <f t="shared" si="0"/>
+        <v>76.512455516014242</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="B39" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>0.45</v>
+        <v>0.155</v>
       </c>
       <c r="F39">
-        <v>1.6923572166482399</v>
+        <v>0.29387522857655701</v>
       </c>
       <c r="G39">
-        <v>3.85</v>
+        <v>3.38</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J39" t="s">
         <v>335</v>
       </c>
       <c r="K39">
-        <f>E39/G39*1000</f>
-        <v>116.88311688311688</v>
+        <f t="shared" si="0"/>
+        <v>45.857988165680474</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
-        <v>0.115</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F40">
-        <v>8.0756167488511804E-2</v>
+        <v>1.00688152957746</v>
       </c>
       <c r="G40">
-        <v>3.12</v>
+        <v>2.81</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K40">
-        <f>E40/G40*1000</f>
-        <v>36.858974358974358</v>
+        <f t="shared" si="0"/>
+        <v>97.864768683274022</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="B41" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>0.32</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F41">
-        <v>0.52346411179487196</v>
+        <v>1.2473135066516401</v>
       </c>
       <c r="G41">
-        <v>2.69</v>
+        <v>5.18</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -3781,37 +3771,37 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K41">
-        <f>E41/G41*1000</f>
-        <v>118.95910780669146</v>
+        <f t="shared" si="0"/>
+        <v>62.74131274131274</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42">
-        <v>0.22</v>
+        <v>0.245</v>
       </c>
       <c r="F42">
-        <v>0.28805482522275</v>
+        <v>0.27650418335735599</v>
       </c>
       <c r="G42">
-        <v>3.11</v>
+        <v>4.13</v>
       </c>
       <c r="H42" t="s">
         <v>3</v>
@@ -3823,34 +3813,34 @@
         <v>335</v>
       </c>
       <c r="K42">
-        <f>E42/G42*1000</f>
-        <v>70.739549839228303</v>
+        <f t="shared" si="0"/>
+        <v>59.322033898305087</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>0.26</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="F43">
-        <v>0.49293459906151199</v>
+        <v>0.55860881749949498</v>
       </c>
       <c r="G43">
-        <v>2.42</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
@@ -3862,151 +3852,151 @@
         <v>335</v>
       </c>
       <c r="K43">
-        <f>E43/G43*1000</f>
-        <v>107.43801652892563</v>
+        <f t="shared" si="0"/>
+        <v>75.257731958762903</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>0.32500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="F44">
-        <v>0.63727571597339405</v>
+        <v>0.47424150652580199</v>
       </c>
       <c r="G44">
-        <v>3.13</v>
+        <v>5.05</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K44">
-        <f>E44/G44*1000</f>
-        <v>103.83386581469649</v>
+        <f t="shared" si="0"/>
+        <v>50.495049504950501</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0.3</v>
       </c>
       <c r="F45">
-        <v>0.34880586604226299</v>
+        <v>0.39858684322429899</v>
       </c>
       <c r="G45">
-        <v>3.79</v>
+        <v>4.47</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K45">
-        <f>E45/G45*1000</f>
-        <v>79.155672823218993</v>
+        <f t="shared" si="0"/>
+        <v>67.114093959731548</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="B46" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0.155</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F46">
-        <v>5.4188989450119802E-2</v>
+        <v>0.348496204103527</v>
       </c>
       <c r="G46">
-        <v>2.38</v>
+        <v>3.85</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J46" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K46">
-        <f>E46/G46*1000</f>
-        <v>65.12605042016807</v>
+        <f t="shared" si="0"/>
+        <v>61.038961038961034</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0.14499999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F47">
-        <v>0.10148659852088</v>
+        <v>0.29551809701808301</v>
       </c>
       <c r="G47">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -4018,34 +4008,34 @@
         <v>335</v>
       </c>
       <c r="K47">
-        <f>E47/G47*1000</f>
-        <v>40.845070422535215</v>
+        <f t="shared" si="0"/>
+        <v>63.002680965147455</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="B48" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
-        <v>8.4310382573428003E-2</v>
+        <v>7.6178772284288598E-2</v>
       </c>
       <c r="G48">
-        <v>2.88</v>
+        <v>4.05</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -4057,34 +4047,34 @@
         <v>335</v>
       </c>
       <c r="K48">
-        <f>E48/G48*1000</f>
-        <v>48.611111111111121</v>
+        <f t="shared" si="0"/>
+        <v>24.691358024691361</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>7.0000000000000007E-2</v>
+        <v>0.6</v>
       </c>
       <c r="F49">
-        <v>3.50850902805546E-2</v>
+        <v>1.2276633373936401</v>
       </c>
       <c r="G49">
-        <v>2.91</v>
+        <v>5.96</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -4093,154 +4083,154 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K49">
-        <f>E49/G49*1000</f>
-        <v>24.054982817869416</v>
+        <f t="shared" si="0"/>
+        <v>100.67114093959731</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50">
-        <v>0.19500000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F50">
-        <v>0.105241345371119</v>
+        <v>0.40605035215638202</v>
       </c>
       <c r="G50">
-        <v>4.12</v>
+        <v>4.78</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J50" t="s">
         <v>336</v>
       </c>
       <c r="K50">
-        <f>E50/G50*1000</f>
-        <v>47.33009708737864</v>
+        <f t="shared" si="0"/>
+        <v>56.485355648535567</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>6.5000000000000002E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F51">
-        <v>8.7149927795955803E-2</v>
+        <v>0.22344996545454601</v>
       </c>
       <c r="G51">
-        <v>1.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K51">
-        <f>E51/G51*1000</f>
-        <v>41.935483870967744</v>
+        <f t="shared" si="0"/>
+        <v>74.509803921568647</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>0.125</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F52">
-        <v>0.12329344585987299</v>
+        <v>0.46596396635110798</v>
       </c>
       <c r="G52">
-        <v>4.13</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K52">
-        <f>E52/G52*1000</f>
-        <v>30.26634382566586</v>
+        <f t="shared" si="0"/>
+        <v>116.46586345381523</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>0.23499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F53">
-        <v>0.23447140373866299</v>
+        <v>0.108715163303903</v>
       </c>
       <c r="G53">
-        <v>3.39</v>
+        <v>2.71</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
@@ -4252,34 +4242,34 @@
         <v>335</v>
       </c>
       <c r="K53">
-        <f>E53/G53*1000</f>
-        <v>69.321533923303832</v>
+        <f t="shared" si="0"/>
+        <v>51.660516605166059</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>0.185</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F54">
-        <v>0.245195530451986</v>
+        <v>5.5803336644687701E-2</v>
       </c>
       <c r="G54">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
@@ -4288,37 +4278,37 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K54">
-        <f>E54/G54*1000</f>
-        <v>74</v>
+        <f t="shared" si="0"/>
+        <v>30.357142857142861</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>393</v>
+        <v>439</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55">
-        <v>0.26</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F55">
-        <v>0.98072133152208396</v>
+        <v>0.49618739374999998</v>
       </c>
       <c r="G55">
-        <v>3.87</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
@@ -4327,154 +4317,154 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K55">
-        <f>E55/G55*1000</f>
-        <v>67.183462532299743</v>
+        <f t="shared" si="0"/>
+        <v>66.25</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>390</v>
+        <v>442</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.38</v>
+        <v>0.185</v>
       </c>
       <c r="F56">
-        <v>1.8560677090909099</v>
+        <v>0.35888822589894998</v>
       </c>
       <c r="G56">
-        <v>3.27</v>
+        <v>3.71</v>
       </c>
       <c r="H56" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J56" t="s">
         <v>143</v>
       </c>
       <c r="K56">
-        <f>E56/G56*1000</f>
-        <v>116.20795107033639</v>
+        <f t="shared" si="0"/>
+        <v>49.865229110512132</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>392</v>
+        <v>444</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57">
-        <v>0.08</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F57">
-        <v>0.118069319815112</v>
+        <v>0.205269372433868</v>
       </c>
       <c r="G57">
-        <v>1.65</v>
+        <v>2.76</v>
       </c>
       <c r="H57" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K57">
-        <f>E57/G57*1000</f>
-        <v>48.484848484848492</v>
+        <f t="shared" si="0"/>
+        <v>52.536231884057969</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58">
-        <v>0.13500000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F58">
-        <v>0.189058973102841</v>
+        <v>0.33259011499747998</v>
       </c>
       <c r="G58">
-        <v>4.0199999999999996</v>
+        <v>3.53</v>
       </c>
       <c r="H58" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K58">
-        <f>E58/G58*1000</f>
-        <v>33.582089552238813</v>
+        <f t="shared" si="0"/>
+        <v>46.742209631728052</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="C59" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0.44500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="F59">
-        <v>1.47077025787491</v>
+        <v>8.7767037820436197E-2</v>
       </c>
       <c r="G59">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
@@ -4483,37 +4473,37 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K59">
-        <f>E59/G59*1000</f>
-        <v>161.23188405797103</v>
+        <f t="shared" si="0"/>
+        <v>41.946308724832214</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="F60">
-        <v>0.51989839090909096</v>
+        <v>0.36345782147674399</v>
       </c>
       <c r="G60">
-        <v>3.8</v>
+        <v>2.86</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
@@ -4525,34 +4515,34 @@
         <v>335</v>
       </c>
       <c r="K60">
-        <f>E60/G60*1000</f>
-        <v>71.052631578947384</v>
+        <f t="shared" si="0"/>
+        <v>66.433566433566426</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61">
-        <v>0.495</v>
+        <v>0.37</v>
       </c>
       <c r="F61">
-        <v>1.70848243847461</v>
+        <v>1.1487642120294801</v>
       </c>
       <c r="G61">
-        <v>2.9</v>
+        <v>4.12</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
@@ -4561,193 +4551,193 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K61">
-        <f>E61/G61*1000</f>
-        <v>170.68965517241381</v>
+        <f t="shared" si="0"/>
+        <v>89.805825242718441</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="B62" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0.1</v>
+        <v>0.24</v>
       </c>
       <c r="F62">
-        <v>5.1784265280733703E-2</v>
+        <v>0.70642270065373602</v>
       </c>
       <c r="G62">
-        <v>3.16</v>
+        <v>4.55</v>
       </c>
       <c r="H62" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K62">
-        <f>E62/G62*1000</f>
-        <v>31.645569620253166</v>
+        <f t="shared" si="0"/>
+        <v>52.747252747252745</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>398</v>
+        <v>456</v>
       </c>
       <c r="B63" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="F63">
-        <v>0.11081432197713401</v>
+        <v>0.43238234747023302</v>
       </c>
       <c r="G63">
-        <v>3.51</v>
+        <v>4.37</v>
       </c>
       <c r="H63" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>336</v>
       </c>
       <c r="K63">
-        <f>E63/G63*1000</f>
-        <v>37.037037037037045</v>
+        <f t="shared" si="0"/>
+        <v>59.496567505720826</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="B64" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>6.5000000000000002E-2</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="F64">
-        <v>5.4021580124283201E-2</v>
+        <v>0.79023369373749097</v>
       </c>
       <c r="G64">
-        <v>2.87</v>
+        <v>3.65</v>
       </c>
       <c r="H64" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>336</v>
       </c>
       <c r="K64">
-        <f>E64/G64*1000</f>
-        <v>22.648083623693381</v>
+        <f t="shared" si="0"/>
+        <v>116.43835616438355</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>0.11</v>
+        <v>0.38</v>
       </c>
       <c r="F65">
-        <v>0.15716739868469601</v>
+        <v>0.73072930564971805</v>
       </c>
       <c r="G65">
-        <v>2.06</v>
+        <v>3.71</v>
       </c>
       <c r="H65" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>143</v>
       </c>
       <c r="K65">
-        <f>E65/G65*1000</f>
-        <v>53.398058252427184</v>
+        <f t="shared" si="0"/>
+        <v>102.42587601078168</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.43</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F66">
-        <v>2.1866456329561599</v>
+        <v>0.99588932920619999</v>
       </c>
       <c r="G66">
-        <v>5.62</v>
+        <v>5.4</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -4759,151 +4749,151 @@
         <v>143</v>
       </c>
       <c r="K66">
-        <f>E66/G66*1000</f>
-        <v>76.512455516014242</v>
+        <f t="shared" ref="K66:K129" si="1">E66/G66*1000</f>
+        <v>63.888888888888886</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="B67" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>0.245</v>
+      </c>
+      <c r="F67">
+        <v>0.642948030883435</v>
+      </c>
+      <c r="G67">
+        <v>7.45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>3</v>
+      </c>
+      <c r="I67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" t="s">
+        <v>335</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>32.885906040268452</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>468</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>0.375</v>
+      </c>
+      <c r="F68">
+        <v>1.4248593072770099</v>
+      </c>
+      <c r="G68">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H68" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>143</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>74.701195219123505</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>471</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="E67">
-        <v>0.2</v>
-      </c>
-      <c r="F67">
-        <v>0.42473575843550798</v>
-      </c>
-      <c r="G67">
-        <v>1.46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" t="s">
-        <v>24</v>
-      </c>
-      <c r="J67" t="s">
-        <v>336</v>
-      </c>
-      <c r="K67">
-        <f>E67/G67*1000</f>
-        <v>136.98630136986304</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>404</v>
-      </c>
-      <c r="B68" t="s">
-        <v>187</v>
-      </c>
-      <c r="C68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68">
+      <c r="E69">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="F69">
+        <v>0.39034660356395601</v>
+      </c>
+      <c r="G69">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H69" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
+        <v>335</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>47.959183673469383</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>472</v>
+      </c>
+      <c r="B70" t="s">
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70">
         <v>2</v>
       </c>
-      <c r="E68">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F68">
-        <v>8.0562518378646794E-2</v>
-      </c>
-      <c r="G68">
-        <v>1.19</v>
-      </c>
-      <c r="H68" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" t="s">
-        <v>24</v>
-      </c>
-      <c r="J68" t="s">
-        <v>336</v>
-      </c>
-      <c r="K68">
-        <f>E68/G68*1000</f>
-        <v>147.05882352941177</v>
-      </c>
-      <c r="L68" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>405</v>
-      </c>
-      <c r="B69" t="s">
-        <v>188</v>
-      </c>
-      <c r="C69" t="s">
-        <v>82</v>
-      </c>
-      <c r="D69">
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <v>0.26500000000000001</v>
-      </c>
-      <c r="F69">
-        <v>0.41314969839043902</v>
-      </c>
-      <c r="G69">
-        <v>2.21</v>
-      </c>
-      <c r="H69" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" t="s">
-        <v>24</v>
-      </c>
-      <c r="J69" t="s">
-        <v>336</v>
-      </c>
-      <c r="K69">
-        <f>E69/G69*1000</f>
-        <v>119.90950226244344</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>406</v>
-      </c>
-      <c r="B70" t="s">
-        <v>189</v>
-      </c>
-      <c r="C70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
       <c r="E70">
-        <v>0.155</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F70">
-        <v>0.29387522857655701</v>
+        <v>5.3723863768115998E-2</v>
       </c>
       <c r="G70">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="H70" t="s">
         <v>3</v>
@@ -4915,34 +4905,34 @@
         <v>335</v>
       </c>
       <c r="K70">
-        <f>E70/G70*1000</f>
-        <v>45.857988165680474</v>
+        <f t="shared" si="1"/>
+        <v>24.425287356321842</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>0.27500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="F71">
-        <v>1.00688152957746</v>
+        <v>0.15739060844311201</v>
       </c>
       <c r="G71">
-        <v>2.81</v>
+        <v>4.03</v>
       </c>
       <c r="H71" t="s">
         <v>3</v>
@@ -4951,37 +4941,37 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K71">
-        <f>E71/G71*1000</f>
-        <v>97.864768683274022</v>
+        <f t="shared" si="1"/>
+        <v>32.258064516129032</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0.32500000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F72">
-        <v>1.2473135066516401</v>
+        <v>1.05138779714286</v>
       </c>
       <c r="G72">
-        <v>5.18</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H72" t="s">
         <v>3</v>
@@ -4990,157 +4980,154 @@
         <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K72">
-        <f>E72/G72*1000</f>
-        <v>62.74131274131274</v>
+        <f t="shared" si="1"/>
+        <v>98.308668076109939</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>407</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0.20499999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="F73">
-        <v>0.149076244886094</v>
+        <v>8.5141952979379196E-2</v>
       </c>
       <c r="G73">
-        <v>5.35</v>
+        <v>3.22</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>335</v>
       </c>
       <c r="K73">
-        <f>E73/G73*1000</f>
-        <v>38.317757009345797</v>
+        <f t="shared" si="1"/>
+        <v>35.714285714285715</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
-        <v>9.5000000000000001E-2</v>
+        <v>0.19</v>
       </c>
       <c r="F74">
-        <v>0.87550539642005598</v>
+        <v>0.20147657801798399</v>
       </c>
       <c r="G74">
-        <v>3.09</v>
+        <v>3.37</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>335</v>
       </c>
       <c r="K74">
-        <f>E74/G74*1000</f>
-        <v>30.744336569579289</v>
+        <f t="shared" si="1"/>
+        <v>56.379821958456972</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="M74" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75">
-        <v>0.115</v>
+        <v>0.23</v>
       </c>
       <c r="F75">
-        <v>8.1459075862069005E-2</v>
+        <v>0.34938498198500501</v>
       </c>
       <c r="G75">
-        <v>3.96</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="H75" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K75">
-        <f>E75/G75*1000</f>
-        <v>29.040404040404045</v>
+        <f t="shared" si="1"/>
+        <v>51.801801801801801</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>0.245</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F76">
-        <v>0.27650418335735599</v>
+        <v>0.61500084010355305</v>
       </c>
       <c r="G76">
-        <v>4.13</v>
+        <v>5.76</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -5149,37 +5136,37 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K76">
-        <f>E76/G76*1000</f>
-        <v>59.322033898305087</v>
+        <f t="shared" si="1"/>
+        <v>46.00694444444445</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="B77" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>0.36499999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="F77">
-        <v>0.55860881749949498</v>
+        <v>0.82855541944615496</v>
       </c>
       <c r="G77">
-        <v>4.8499999999999996</v>
+        <v>5.12</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -5191,34 +5178,34 @@
         <v>335</v>
       </c>
       <c r="K77">
-        <f>E77/G77*1000</f>
-        <v>75.257731958762903</v>
+        <f t="shared" si="1"/>
+        <v>66.40625</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>0.255</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F78">
-        <v>0.47424150652580199</v>
+        <v>6.52454959277768E-2</v>
       </c>
       <c r="G78">
-        <v>5.05</v>
+        <v>3.3</v>
       </c>
       <c r="H78" t="s">
         <v>3</v>
@@ -5230,112 +5217,112 @@
         <v>335</v>
       </c>
       <c r="K78">
-        <f>E78/G78*1000</f>
-        <v>50.495049504950501</v>
+        <f t="shared" si="1"/>
+        <v>28.787878787878789</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="B79" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79">
-        <v>0.22500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F79">
-        <v>0.55245234214286099</v>
+        <v>0.34339970463917502</v>
       </c>
       <c r="G79">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="H79" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
         <v>143</v>
       </c>
       <c r="K79">
-        <f>E79/G79*1000</f>
-        <v>60.321715817694368</v>
+        <f t="shared" si="1"/>
+        <v>65.573770491803273</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="B80" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>0.13500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F80">
-        <v>0.16691093120964101</v>
+        <v>0.336737629252917</v>
       </c>
       <c r="G80">
-        <v>4.4800000000000004</v>
+        <v>3.71</v>
       </c>
       <c r="H80" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
         <v>335</v>
       </c>
       <c r="K80">
-        <f>E80/G80*1000</f>
-        <v>30.133928571428573</v>
+        <f t="shared" si="1"/>
+        <v>67.385444743935309</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C81" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0.3</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F81">
-        <v>0.39858684322429899</v>
+        <v>0.197904608287293</v>
       </c>
       <c r="G81">
-        <v>4.47</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="s">
         <v>3</v>
@@ -5347,34 +5334,34 @@
         <v>335</v>
       </c>
       <c r="K81">
-        <f>E81/G81*1000</f>
-        <v>67.114093959731548</v>
+        <f t="shared" si="1"/>
+        <v>53.225806451612904</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82">
-        <v>0.23499999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="F82">
-        <v>0.348496204103527</v>
+        <v>0.186071436082481</v>
       </c>
       <c r="G82">
-        <v>3.85</v>
+        <v>4.07</v>
       </c>
       <c r="H82" t="s">
         <v>3</v>
@@ -5383,37 +5370,37 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K82">
-        <f>E82/G82*1000</f>
-        <v>61.038961038961034</v>
+        <f t="shared" si="1"/>
+        <v>27.027027027027025</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>421</v>
+        <v>498</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83">
-        <v>0.23499999999999999</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F83">
-        <v>0.29551809701808301</v>
+        <v>4.5508168133970399E-2</v>
       </c>
       <c r="G83">
-        <v>3.73</v>
+        <v>2.66</v>
       </c>
       <c r="H83" t="s">
         <v>3</v>
@@ -5422,25 +5409,25 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K83">
-        <f>E83/G83*1000</f>
-        <v>63.002680965147455</v>
+        <f t="shared" si="1"/>
+        <v>16.917293233082706</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>418</v>
+        <v>500</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="C84" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5449,1024 +5436,1024 @@
         <v>0.18</v>
       </c>
       <c r="F84">
-        <v>0.14517854052252899</v>
+        <v>0.23514499058402</v>
       </c>
       <c r="G84">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="H84" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K84">
-        <f>E84/G84*1000</f>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>62.283737024221452</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>420</v>
+        <v>502</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85">
-        <v>0.105</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F85">
-        <v>0.16669796109842899</v>
+        <v>0.32275400777364699</v>
       </c>
       <c r="G85">
-        <v>3.09</v>
+        <v>4.49</v>
       </c>
       <c r="H85" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J85" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K85">
-        <f>E85/G85*1000</f>
-        <v>33.980582524271846</v>
+        <f t="shared" si="1"/>
+        <v>52.338530066815139</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>0.125</v>
+        <v>0.215</v>
       </c>
       <c r="F86">
-        <v>0.22139956320992901</v>
+        <v>0.13996957374013699</v>
       </c>
       <c r="G86">
-        <v>4.78</v>
+        <v>5.22</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
       </c>
       <c r="I86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J86" t="s">
         <v>336</v>
       </c>
       <c r="K86">
-        <f>E86/G86*1000</f>
-        <v>26.15062761506276</v>
+        <f t="shared" si="1"/>
+        <v>41.187739463601531</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="C87" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0.125</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="F87">
-        <v>0.140477640289356</v>
+        <v>0.73041979127538803</v>
       </c>
       <c r="G87">
-        <v>1.82</v>
+        <v>7.26</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
       </c>
       <c r="I87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K87">
-        <f>E87/G87*1000</f>
-        <v>68.681318681318672</v>
+        <f t="shared" si="1"/>
+        <v>47.52066115702479</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>424</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C88" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F88">
-        <v>4.3984112447082099E-2</v>
+        <v>0.24096482781065101</v>
       </c>
       <c r="G88">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J88" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K88">
-        <f>E88/G88*1000</f>
-        <v>26.229508196721316</v>
+        <f t="shared" si="1"/>
+        <v>60.4982206405694</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>425</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0.1</v>
+        <v>0.215</v>
       </c>
       <c r="F89">
-        <v>7.6178772284288598E-2</v>
+        <v>0.19078524522906201</v>
       </c>
       <c r="G89">
-        <v>4.05</v>
+        <v>2.91</v>
       </c>
       <c r="H89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J89" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K89">
-        <f>E89/G89*1000</f>
-        <v>24.691358024691361</v>
+        <f t="shared" si="1"/>
+        <v>73.883161512027499</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>427</v>
+        <v>357</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
       <c r="F90">
-        <v>1.2276633373936401</v>
+        <v>4.7829439808670798E-2</v>
       </c>
       <c r="G90">
-        <v>5.96</v>
+        <v>1.56</v>
       </c>
       <c r="H90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J90" t="s">
         <v>143</v>
       </c>
       <c r="K90">
-        <f>E90/G90*1000</f>
-        <v>100.67114093959731</v>
+        <f t="shared" si="1"/>
+        <v>32.051282051282058</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>429</v>
+        <v>359</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.27</v>
+        <v>0.49</v>
       </c>
       <c r="F91">
-        <v>0.40605035215638202</v>
+        <v>1.60727912516422</v>
       </c>
       <c r="G91">
-        <v>4.78</v>
+        <v>4.38</v>
       </c>
       <c r="H91" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J91" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K91">
-        <f>E91/G91*1000</f>
-        <v>56.485355648535567</v>
+        <f t="shared" si="1"/>
+        <v>111.87214611872146</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>426</v>
+        <v>361</v>
       </c>
       <c r="B92" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C92" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
-        <v>0.23499999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F92">
-        <v>0.30540731641990998</v>
+        <v>0.21237162158394701</v>
       </c>
       <c r="G92">
-        <v>4.1100000000000003</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J92" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K92">
-        <f>E92/G92*1000</f>
-        <v>57.177615571776151</v>
+        <f t="shared" si="1"/>
+        <v>49.778761061946909</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="B93" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>0.215</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F93">
-        <v>0.30211758492419899</v>
+        <v>0.27942967563971299</v>
       </c>
       <c r="G93">
-        <v>3.7</v>
+        <v>3.01</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
       </c>
       <c r="I93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K93">
-        <f>E93/G93*1000</f>
-        <v>58.108108108108105</v>
+        <f t="shared" si="1"/>
+        <v>74.750830564784053</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>430</v>
+        <v>365</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="C94" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E94">
-        <v>0.16500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="F94">
-        <v>0.192544231075538</v>
+        <v>5.4917041087909201E-2</v>
       </c>
       <c r="G94">
-        <v>2.06</v>
+        <v>1.62</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
       </c>
       <c r="I94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J94" t="s">
         <v>335</v>
       </c>
       <c r="K94">
-        <f>E94/G94*1000</f>
-        <v>80.097087378640779</v>
+        <f t="shared" si="1"/>
+        <v>61.728395061728392</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>431</v>
+        <v>367</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>0.19</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="F95">
-        <v>0.22344996545454601</v>
+        <v>0.31426907128048698</v>
       </c>
       <c r="G95">
-        <v>2.5499999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I95" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J95" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K95">
-        <f>E95/G95*1000</f>
-        <v>74.509803921568647</v>
+        <f t="shared" si="1"/>
+        <v>101.78571428571429</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>433</v>
+        <v>369</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>0.28999999999999998</v>
+        <v>0.185</v>
       </c>
       <c r="F96">
-        <v>0.46596396635110798</v>
+        <v>0.12819486641816899</v>
       </c>
       <c r="G96">
-        <v>2.4900000000000002</v>
+        <v>2.64</v>
       </c>
       <c r="H96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I96" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K96">
-        <f>E96/G96*1000</f>
-        <v>116.46586345381523</v>
+        <f t="shared" si="1"/>
+        <v>70.075757575757564</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>435</v>
+        <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0.14000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="F97">
-        <v>0.108715163303903</v>
+        <v>9.1386390243902493E-2</v>
       </c>
       <c r="G97">
-        <v>2.71</v>
+        <v>2.74</v>
       </c>
       <c r="H97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I97" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J97" t="s">
         <v>335</v>
       </c>
       <c r="K97">
-        <f>E97/G97*1000</f>
-        <v>51.660516605166059</v>
+        <f t="shared" si="1"/>
+        <v>32.846715328467148</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="B98" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>3.5000000000000003E-2</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F98">
-        <v>0.37284461702725802</v>
+        <v>0.216389235135135</v>
       </c>
       <c r="G98">
-        <v>1.31</v>
+        <v>3.25</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J98" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K98">
-        <f>E98/G98*1000</f>
-        <v>26.717557251908399</v>
+        <f t="shared" si="1"/>
+        <v>69.230769230769241</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99">
-        <v>2.5000000000000001E-2</v>
+        <v>0.45</v>
       </c>
       <c r="F99">
-        <v>1.4716209660355299E-2</v>
+        <v>1.6923572166482399</v>
       </c>
       <c r="G99">
-        <v>1.42</v>
+        <v>3.85</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
       </c>
       <c r="I99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J99" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K99">
-        <f>E99/G99*1000</f>
-        <v>17.605633802816904</v>
+        <f t="shared" si="1"/>
+        <v>116.88311688311688</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>436</v>
+        <v>376</v>
       </c>
       <c r="B100" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="E100">
-        <v>0.15</v>
+        <v>0.115</v>
       </c>
       <c r="F100">
-        <v>0.201815666147388</v>
+        <v>8.0756167488511804E-2</v>
       </c>
       <c r="G100">
-        <v>2.56</v>
+        <v>3.12</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
       </c>
       <c r="I100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J100" t="s">
         <v>143</v>
       </c>
       <c r="K100">
-        <f>E100/G100*1000</f>
-        <v>58.59375</v>
+        <f t="shared" si="1"/>
+        <v>36.858974358974358</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>437</v>
+        <v>378</v>
       </c>
       <c r="B101" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="C101" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>8.5000000000000006E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="F101">
-        <v>5.5803336644687701E-2</v>
+        <v>0.63727571597339405</v>
       </c>
       <c r="G101">
-        <v>2.8</v>
+        <v>3.13</v>
       </c>
       <c r="H101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J101" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K101">
-        <f>E101/G101*1000</f>
-        <v>30.357142857142861</v>
+        <f t="shared" si="1"/>
+        <v>103.83386581469649</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>439</v>
+        <v>380</v>
       </c>
       <c r="B102" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="C102" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102">
-        <v>0.26500000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F102">
-        <v>0.49618739374999998</v>
+        <v>0.34880586604226299</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>3.79</v>
       </c>
       <c r="H102" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J102" t="s">
         <v>336</v>
       </c>
       <c r="K102">
-        <f>E102/G102*1000</f>
-        <v>66.25</v>
+        <f t="shared" si="1"/>
+        <v>79.155672823218993</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>7.0000000000000007E-2</v>
+        <v>0.155</v>
       </c>
       <c r="F103">
-        <v>7.7599020285095202E-2</v>
+        <v>5.4188989450119802E-2</v>
       </c>
       <c r="G103">
-        <v>2.83</v>
+        <v>2.38</v>
       </c>
       <c r="H103" t="s">
         <v>4</v>
       </c>
       <c r="I103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J103" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K103">
-        <f>E103/G103*1000</f>
-        <v>24.734982332155479</v>
+        <f t="shared" si="1"/>
+        <v>65.12605042016807</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="B104" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.255</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F104">
-        <v>0.41376788839358902</v>
+        <v>0.105241345371119</v>
       </c>
       <c r="G104">
-        <v>2.81</v>
+        <v>4.12</v>
       </c>
       <c r="H104" t="s">
         <v>4</v>
       </c>
       <c r="I104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J104" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K104">
-        <f>E104/G104*1000</f>
-        <v>90.747330960854086</v>
+        <f t="shared" si="1"/>
+        <v>47.33009708737864</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0.21</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F105">
-        <v>0.84939826734132495</v>
+        <v>8.7149927795955803E-2</v>
       </c>
       <c r="G105">
-        <v>4.1900000000000004</v>
+        <v>1.55</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
       </c>
       <c r="I105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J105" t="s">
         <v>336</v>
       </c>
       <c r="K105">
-        <f>E105/G105*1000</f>
-        <v>50.119331742243432</v>
+        <f t="shared" si="1"/>
+        <v>41.935483870967744</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>0.185</v>
+        <v>0.125</v>
       </c>
       <c r="F106">
-        <v>0.35888822589894998</v>
+        <v>0.12329344585987299</v>
       </c>
       <c r="G106">
-        <v>3.71</v>
+        <v>4.13</v>
       </c>
       <c r="H106" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I106" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J106" t="s">
         <v>143</v>
       </c>
       <c r="K106">
-        <f>E106/G106*1000</f>
-        <v>49.865229110512132</v>
+        <f t="shared" si="1"/>
+        <v>30.26634382566586</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.14499999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="F107">
-        <v>0.205269372433868</v>
+        <v>1.8560677090909099</v>
       </c>
       <c r="G107">
-        <v>2.76</v>
+        <v>3.27</v>
       </c>
       <c r="H107" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J107" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K107">
-        <f>E107/G107*1000</f>
-        <v>52.536231884057969</v>
+        <f t="shared" si="1"/>
+        <v>116.20795107033639</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>446</v>
+        <v>392</v>
       </c>
       <c r="B108" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>0.16500000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F108">
-        <v>0.33259011499747998</v>
+        <v>0.118069319815112</v>
       </c>
       <c r="G108">
-        <v>3.53</v>
+        <v>1.65</v>
       </c>
       <c r="H108" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="J108" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K108">
-        <f>E108/G108*1000</f>
-        <v>46.742209631728052</v>
+        <f t="shared" si="1"/>
+        <v>48.484848484848492</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>394</v>
       </c>
       <c r="B109" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C109" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.255</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F109">
-        <v>0.47911862322867799</v>
+        <v>0.189058973102841</v>
       </c>
       <c r="G109">
-        <v>2.88</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
       </c>
       <c r="I109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J109" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K109">
-        <f>E109/G109*1000</f>
-        <v>88.541666666666671</v>
+        <f t="shared" si="1"/>
+        <v>33.582089552238813</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="B110" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>0.155</v>
+        <v>0.1</v>
       </c>
       <c r="F110">
-        <v>0.14220300008112399</v>
+        <v>5.1784265280733703E-2</v>
       </c>
       <c r="G110">
-        <v>1.9</v>
+        <v>3.16</v>
       </c>
       <c r="H110" t="s">
         <v>4</v>
@@ -6475,37 +6462,37 @@
         <v>24</v>
       </c>
       <c r="J110" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K110">
-        <f>E110/G110*1000</f>
-        <v>81.578947368421055</v>
+        <f t="shared" si="1"/>
+        <v>31.645569620253166</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="B111" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="C111" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="F111">
-        <v>0.19124788380164601</v>
+        <v>0.11081432197713401</v>
       </c>
       <c r="G111">
-        <v>2.2799999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -6514,154 +6501,154 @@
         <v>24</v>
       </c>
       <c r="J111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K111">
-        <f>E111/G111*1000</f>
-        <v>48.245614035087726</v>
+        <f t="shared" si="1"/>
+        <v>37.037037037037045</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="B112" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>0.125</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F112">
-        <v>8.7767037820436197E-2</v>
+        <v>5.4021580124283201E-2</v>
       </c>
       <c r="G112">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="H112" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I112" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J112" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K112">
-        <f>E112/G112*1000</f>
-        <v>41.946308724832214</v>
+        <f t="shared" si="1"/>
+        <v>22.648083623693381</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="B113" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F113">
-        <v>0.36345782147674399</v>
+        <v>0.15716739868469601</v>
       </c>
       <c r="G113">
-        <v>2.86</v>
+        <v>2.06</v>
       </c>
       <c r="H113" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I113" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J113" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K113">
-        <f>E113/G113*1000</f>
-        <v>66.433566433566426</v>
+        <f t="shared" si="1"/>
+        <v>53.398058252427184</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="B114" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C114" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E114">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
       <c r="F114">
-        <v>1.1487642120294801</v>
+        <v>0.42473575843550798</v>
       </c>
       <c r="G114">
-        <v>4.12</v>
+        <v>1.46</v>
       </c>
       <c r="H114" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I114" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J114" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K114">
-        <f>E114/G114*1000</f>
-        <v>89.805825242718441</v>
+        <f t="shared" si="1"/>
+        <v>136.98630136986304</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>449</v>
+        <v>404</v>
       </c>
       <c r="B115" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.12</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F115">
-        <v>0.17601997734137101</v>
+        <v>8.0562518378646794E-2</v>
       </c>
       <c r="G115">
-        <v>2.91</v>
+        <v>1.19</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -6670,37 +6657,37 @@
         <v>24</v>
       </c>
       <c r="J115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K115">
-        <f>E115/G115*1000</f>
-        <v>41.237113402061858</v>
+        <f t="shared" si="1"/>
+        <v>147.05882352941177</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>451</v>
+        <v>405</v>
       </c>
       <c r="B116" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>6.5000000000000002E-2</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="F116">
-        <v>9.4921172465544101E-2</v>
+        <v>0.41314969839043902</v>
       </c>
       <c r="G116">
-        <v>3</v>
+        <v>2.21</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -6709,37 +6696,37 @@
         <v>24</v>
       </c>
       <c r="J116" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K116">
-        <f>E116/G116*1000</f>
-        <v>21.666666666666668</v>
+        <f t="shared" si="1"/>
+        <v>119.90950226244344</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="B117" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.05</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="F117">
-        <v>7.7264101835848101E-2</v>
+        <v>0.149076244886094</v>
       </c>
       <c r="G117">
-        <v>1.37</v>
+        <v>5.35</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -6751,112 +6738,112 @@
         <v>335</v>
       </c>
       <c r="K117">
-        <f>E117/G117*1000</f>
-        <v>36.496350364963497</v>
+        <f t="shared" si="1"/>
+        <v>38.317757009345797</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>0.24</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="F118">
-        <v>0.70642270065373602</v>
+        <v>0.87550539642005598</v>
       </c>
       <c r="G118">
-        <v>4.55</v>
+        <v>3.09</v>
       </c>
       <c r="H118" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J118" t="s">
         <v>335</v>
       </c>
       <c r="K118">
-        <f>E118/G118*1000</f>
-        <v>52.747252747252745</v>
+        <f t="shared" si="1"/>
+        <v>30.744336569579289</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="B119" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C119" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0.26</v>
+        <v>0.115</v>
       </c>
       <c r="F119">
-        <v>0.43238234747023302</v>
+        <v>8.1459075862069005E-2</v>
       </c>
       <c r="G119">
-        <v>4.37</v>
+        <v>3.96</v>
       </c>
       <c r="H119" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J119" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K119">
-        <f>E119/G119*1000</f>
-        <v>59.496567505720826</v>
+        <f t="shared" si="1"/>
+        <v>29.040404040404045</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C120" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0.155</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F120">
-        <v>0.15447235761446801</v>
+        <v>0.55245234214286099</v>
       </c>
       <c r="G120">
-        <v>1.69</v>
+        <v>3.73</v>
       </c>
       <c r="H120" t="s">
         <v>4</v>
@@ -6868,34 +6855,34 @@
         <v>143</v>
       </c>
       <c r="K120">
-        <f>E120/G120*1000</f>
-        <v>91.715976331360949</v>
+        <f t="shared" si="1"/>
+        <v>60.321715817694368</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>0.23499999999999999</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F121">
-        <v>1.0637608243358601</v>
+        <v>0.16691093120964101</v>
       </c>
       <c r="G121">
-        <v>3.13</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="H121" t="s">
         <v>4</v>
@@ -6904,37 +6891,37 @@
         <v>24</v>
       </c>
       <c r="J121" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K121">
-        <f>E121/G121*1000</f>
-        <v>75.079872204472849</v>
+        <f t="shared" si="1"/>
+        <v>30.133928571428573</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="B122" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C122" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E122">
-        <v>7.0000000000000007E-2</v>
+        <v>0.18</v>
       </c>
       <c r="F122">
-        <v>0.14299364076322901</v>
+        <v>0.14517854052252899</v>
       </c>
       <c r="G122">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -6943,37 +6930,37 @@
         <v>24</v>
       </c>
       <c r="J122" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K122">
-        <f>E122/G122*1000</f>
-        <v>22.222222222222225</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="B123" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C123" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123">
-        <v>0.22</v>
+        <v>0.105</v>
       </c>
       <c r="F123">
-        <v>0.14299364076322901</v>
+        <v>0.16669796109842899</v>
       </c>
       <c r="G123">
-        <v>3.15</v>
+        <v>3.09</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -6982,37 +6969,37 @@
         <v>24</v>
       </c>
       <c r="J123" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K123">
-        <f>E123/G123*1000</f>
-        <v>69.841269841269849</v>
+        <f t="shared" si="1"/>
+        <v>33.980582524271846</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="B124" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C124" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="F124">
-        <v>0.23522473184583101</v>
+        <v>0.22139956320992901</v>
       </c>
       <c r="G124">
-        <v>3.28</v>
+        <v>4.78</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -7021,895 +7008,895 @@
         <v>24</v>
       </c>
       <c r="J124" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K124">
-        <f>E124/G124*1000</f>
-        <v>32.012195121951223</v>
+        <f t="shared" si="1"/>
+        <v>26.15062761506276</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>460</v>
+        <v>423</v>
       </c>
       <c r="B125" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C125" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D125">
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0.42499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F125">
-        <v>0.79023369373749097</v>
+        <v>0.140477640289356</v>
       </c>
       <c r="G125">
-        <v>3.65</v>
+        <v>1.82</v>
       </c>
       <c r="H125" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I125" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J125" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K125">
-        <f>E125/G125*1000</f>
-        <v>116.43835616438355</v>
+        <f t="shared" si="1"/>
+        <v>68.681318681318672</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B126" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C126" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="F126">
-        <v>0.73072930564971805</v>
+        <v>4.3984112447082099E-2</v>
       </c>
       <c r="G126">
-        <v>3.71</v>
+        <v>3.05</v>
       </c>
       <c r="H126" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I126" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J126" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K126">
-        <f>E126/G126*1000</f>
-        <v>102.42587601078168</v>
+        <f t="shared" si="1"/>
+        <v>26.229508196721316</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="B127" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C127" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="E127">
-        <v>0.155</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F127">
-        <v>0.114878838347139</v>
+        <v>0.30540731641990998</v>
       </c>
       <c r="G127">
-        <v>3.07</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
       </c>
       <c r="I127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J127" t="s">
         <v>335</v>
       </c>
       <c r="K127">
-        <f>E127/G127*1000</f>
-        <v>50.488599348534201</v>
+        <f t="shared" si="1"/>
+        <v>57.177615571776151</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128">
-        <v>0.125</v>
+        <v>0.215</v>
       </c>
       <c r="F128">
-        <v>0.13747225759058099</v>
+        <v>0.30211758492419899</v>
       </c>
       <c r="G128">
-        <v>2.75</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
       </c>
       <c r="I128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J128" t="s">
         <v>335</v>
       </c>
       <c r="K128">
-        <f>E128/G128*1000</f>
-        <v>45.454545454545453</v>
+        <f t="shared" si="1"/>
+        <v>58.108108108108105</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="C129" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D129">
         <v>3</v>
       </c>
       <c r="E129">
-        <v>0.17499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="F129">
-        <v>0.126801012790698</v>
+        <v>0.192544231075538</v>
       </c>
       <c r="G129">
-        <v>3.19</v>
+        <v>2.06</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
       </c>
       <c r="I129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J129" t="s">
         <v>335</v>
       </c>
       <c r="K129">
-        <f>E129/G129*1000</f>
-        <v>54.858934169278989</v>
+        <f t="shared" si="1"/>
+        <v>80.097087378640779</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="B130" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D130">
         <v>1</v>
       </c>
       <c r="E130">
-        <v>0.34499999999999997</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F130">
-        <v>0.99588932920619999</v>
+        <v>0.37284461702725802</v>
       </c>
       <c r="G130">
-        <v>5.4</v>
+        <v>1.31</v>
       </c>
       <c r="H130" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J130" t="s">
         <v>143</v>
       </c>
       <c r="K130">
-        <f>E130/G130*1000</f>
-        <v>63.888888888888886</v>
+        <f t="shared" ref="K130:K193" si="2">E130/G130*1000</f>
+        <v>26.717557251908399</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="B131" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0.245</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F131">
-        <v>0.642948030883435</v>
+        <v>1.4716209660355299E-2</v>
       </c>
       <c r="G131">
-        <v>7.45</v>
+        <v>1.42</v>
       </c>
       <c r="H131" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J131" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K131">
-        <f>E131/G131*1000</f>
-        <v>32.885906040268452</v>
+        <f t="shared" si="2"/>
+        <v>17.605633802816904</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="B132" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C132" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D132">
         <v>3</v>
       </c>
       <c r="E132">
-        <v>0.375</v>
+        <v>0.15</v>
       </c>
       <c r="F132">
-        <v>1.4248593072770099</v>
+        <v>0.201815666147388</v>
       </c>
       <c r="G132">
-        <v>5.0199999999999996</v>
+        <v>2.56</v>
       </c>
       <c r="H132" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I132" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J132" t="s">
         <v>143</v>
       </c>
       <c r="K132">
-        <f>E132/G132*1000</f>
-        <v>74.701195219123505</v>
+        <f t="shared" si="2"/>
+        <v>58.59375</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="B133" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C133" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F133">
-        <v>5.66006806165925E-2</v>
+        <v>7.7599020285095202E-2</v>
       </c>
       <c r="G133">
-        <v>0.7</v>
+        <v>2.83</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
       </c>
       <c r="I133" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J133" t="s">
         <v>335</v>
       </c>
       <c r="K133">
-        <f>E133/G133*1000</f>
-        <v>100.00000000000001</v>
+        <f t="shared" si="2"/>
+        <v>24.734982332155479</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="B134" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>6.5000000000000002E-2</v>
+        <v>0.255</v>
       </c>
       <c r="F134">
-        <v>4.8402458127208399E-2</v>
+        <v>0.41376788839358902</v>
       </c>
       <c r="G134">
-        <v>1.1399999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
       </c>
       <c r="I134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J134" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K134">
-        <f>E134/G134*1000</f>
-        <v>57.017543859649123</v>
+        <f t="shared" si="2"/>
+        <v>90.747330960854086</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>470</v>
+        <v>441</v>
       </c>
       <c r="B135" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0.04</v>
+        <v>0.21</v>
       </c>
       <c r="F135">
-        <v>6.5059345521944395E-2</v>
+        <v>0.84939826734132495</v>
       </c>
       <c r="G135">
-        <v>1.32</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
       </c>
       <c r="I135" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J135" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K135">
-        <f>E135/G135*1000</f>
-        <v>30.303030303030305</v>
+        <f t="shared" si="2"/>
+        <v>50.119331742243432</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="B136" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C136" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D136">
         <v>1</v>
       </c>
       <c r="E136">
-        <v>0.23499999999999999</v>
+        <v>0.255</v>
       </c>
       <c r="F136">
-        <v>0.39034660356395601</v>
+        <v>0.47911862322867799</v>
       </c>
       <c r="G136">
-        <v>4.9000000000000004</v>
+        <v>2.88</v>
       </c>
       <c r="H136" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I136" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J136" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K136">
-        <f>E136/G136*1000</f>
-        <v>47.959183673469383</v>
+        <f t="shared" si="2"/>
+        <v>88.541666666666671</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>472</v>
+        <v>445</v>
       </c>
       <c r="B137" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C137" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137">
-        <v>8.5000000000000006E-2</v>
+        <v>0.155</v>
       </c>
       <c r="F137">
-        <v>5.3723863768115998E-2</v>
+        <v>0.14220300008112399</v>
       </c>
       <c r="G137">
-        <v>3.48</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I137" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J137" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K137">
-        <f>E137/G137*1000</f>
-        <v>24.425287356321842</v>
+        <f t="shared" si="2"/>
+        <v>81.578947368421055</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="C138" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D138">
         <v>3</v>
       </c>
       <c r="E138">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="F138">
-        <v>0.15739060844311201</v>
+        <v>0.19124788380164601</v>
       </c>
       <c r="G138">
-        <v>4.03</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H138" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J138" t="s">
         <v>335</v>
       </c>
       <c r="K138">
-        <f>E138/G138*1000</f>
-        <v>32.258064516129032</v>
+        <f t="shared" si="2"/>
+        <v>48.245614035087726</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B139" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.17499999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="F139">
-        <v>8.75751892151478E-2</v>
+        <v>0.17601997734137101</v>
       </c>
       <c r="G139">
-        <v>1.75</v>
+        <v>2.91</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
       </c>
       <c r="I139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J139" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K139">
-        <f>E139/G139*1000</f>
-        <v>99.999999999999986</v>
+        <f t="shared" si="2"/>
+        <v>41.237113402061858</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="B140" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>7.4999999999999997E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F140">
-        <v>7.6802706189629394E-2</v>
+        <v>9.4921172465544101E-2</v>
       </c>
       <c r="G140">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J140" t="s">
         <v>335</v>
       </c>
       <c r="K140">
-        <f>E140/G140*1000</f>
-        <v>25.083612040133776</v>
+        <f t="shared" si="2"/>
+        <v>21.666666666666668</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B141" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E141">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F141">
-        <v>8.0141742406347E-2</v>
+        <v>7.7264101835848101E-2</v>
       </c>
       <c r="G141">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
       </c>
       <c r="I141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J141" t="s">
         <v>335</v>
       </c>
       <c r="K141">
-        <f>E141/G141*1000</f>
-        <v>60.810810810810807</v>
+        <f t="shared" si="2"/>
+        <v>36.496350364963497</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="B142" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D142">
         <v>1</v>
       </c>
       <c r="E142">
-        <v>0.46500000000000002</v>
+        <v>0.155</v>
       </c>
       <c r="F142">
-        <v>1.05138779714286</v>
+        <v>0.15447235761446801</v>
       </c>
       <c r="G142">
-        <v>4.7300000000000004</v>
+        <v>1.69</v>
       </c>
       <c r="H142" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I142" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J142" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K142">
-        <f>E142/G142*1000</f>
-        <v>98.308668076109939</v>
+        <f t="shared" si="2"/>
+        <v>91.715976331360949</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="B143" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D143">
         <v>1</v>
       </c>
       <c r="E143">
-        <v>3.5000000000000003E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="F143">
-        <v>4.2540095841646301E-2</v>
+        <v>1.0637608243358601</v>
       </c>
       <c r="G143">
-        <v>2.42</v>
+        <v>3.13</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
       </c>
       <c r="I143" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J143" t="s">
-        <v>143</v>
+        <v>336</v>
       </c>
       <c r="K143">
-        <f>E143/G143*1000</f>
-        <v>14.462809917355374</v>
+        <f t="shared" si="2"/>
+        <v>75.079872204472849</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="B144" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
-        <v>0.115</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F144">
-        <v>8.5141952979379196E-2</v>
+        <v>0.14299364076322901</v>
       </c>
       <c r="G144">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="H144" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I144" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J144" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K144">
-        <f>E144/G144*1000</f>
-        <v>35.714285714285715</v>
+        <f t="shared" si="2"/>
+        <v>22.222222222222225</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="B145" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D145">
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="F145">
-        <v>0.20147657801798399</v>
+        <v>0.14299364076322901</v>
       </c>
       <c r="G145">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="H145" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J145" t="s">
         <v>335</v>
       </c>
       <c r="K145">
-        <f>E145/G145*1000</f>
-        <v>56.379821958456972</v>
+        <f t="shared" si="2"/>
+        <v>69.841269841269849</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D146">
         <v>3</v>
       </c>
       <c r="E146">
-        <v>0.23</v>
+        <v>0.105</v>
       </c>
       <c r="F146">
-        <v>0.34938498198500501</v>
+        <v>0.23522473184583101</v>
       </c>
       <c r="G146">
-        <v>4.4400000000000004</v>
+        <v>3.28</v>
       </c>
       <c r="H146" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J146" t="s">
         <v>335</v>
       </c>
       <c r="K146">
-        <f>E146/G146*1000</f>
-        <v>51.801801801801801</v>
+        <f t="shared" si="2"/>
+        <v>32.012195121951223</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="B147" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.2</v>
+        <v>0.155</v>
       </c>
       <c r="F147">
-        <v>0.12793785832999399</v>
+        <v>0.114878838347139</v>
       </c>
       <c r="G147">
-        <v>3.03</v>
+        <v>3.07</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7918,37 +7905,37 @@
         <v>25</v>
       </c>
       <c r="J147" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K147">
-        <f>E147/G147*1000</f>
-        <v>66.006600660066013</v>
+        <f t="shared" si="2"/>
+        <v>50.488599348534201</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148">
-        <v>0.30499999999999999</v>
+        <v>0.125</v>
       </c>
       <c r="F148">
-        <v>0.42238244702625799</v>
+        <v>0.13747225759058099</v>
       </c>
       <c r="G148">
-        <v>2.44</v>
+        <v>2.75</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -7957,115 +7944,115 @@
         <v>25</v>
       </c>
       <c r="J148" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K148">
-        <f>E148/G148*1000</f>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>45.454545454545453</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E149">
-        <v>0.26500000000000001</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F149">
-        <v>0.61500084010355305</v>
+        <v>0.126801012790698</v>
       </c>
       <c r="G149">
-        <v>5.76</v>
+        <v>3.19</v>
       </c>
       <c r="H149" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I149" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J149" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K149">
-        <f>E149/G149*1000</f>
-        <v>46.00694444444445</v>
+        <f t="shared" si="2"/>
+        <v>54.858934169278989</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B150" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C150" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0.34</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F150">
-        <v>0.82855541944615496</v>
+        <v>5.66006806165925E-2</v>
       </c>
       <c r="G150">
-        <v>5.12</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I150" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J150" t="s">
         <v>335</v>
       </c>
       <c r="K150">
-        <f>E150/G150*1000</f>
-        <v>66.40625</v>
+        <f t="shared" si="2"/>
+        <v>100.00000000000001</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B151" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C151" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>0.2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="F151">
-        <v>0.32586773547724202</v>
+        <v>4.8402458127208399E-2</v>
       </c>
       <c r="G151">
-        <v>2</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -8074,37 +8061,37 @@
         <v>25</v>
       </c>
       <c r="J151" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K151">
-        <f>E151/G151*1000</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>57.017543859649123</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="B152" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C152" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E152">
-        <v>0.17499999999999999</v>
+        <v>0.04</v>
       </c>
       <c r="F152">
-        <v>0.27156342661190802</v>
+        <v>6.5059345521944395E-2</v>
       </c>
       <c r="G152">
-        <v>2.84</v>
+        <v>1.32</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -8113,151 +8100,151 @@
         <v>25</v>
       </c>
       <c r="J152" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K152">
-        <f>E152/G152*1000</f>
-        <v>61.619718309859159</v>
+        <f t="shared" si="2"/>
+        <v>30.303030303030305</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
-        <v>9.5000000000000001E-2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F153">
-        <v>6.52454959277768E-2</v>
+        <v>8.75751892151478E-2</v>
       </c>
       <c r="G153">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="H153" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I153" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J153" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K153">
-        <f>E153/G153*1000</f>
-        <v>28.787878787878789</v>
+        <f t="shared" si="2"/>
+        <v>99.999999999999986</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B154" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C154" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E154">
-        <v>0.24</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="F154">
-        <v>0.34339970463917502</v>
+        <v>7.6802706189629394E-2</v>
       </c>
       <c r="G154">
-        <v>3.66</v>
+        <v>2.99</v>
       </c>
       <c r="H154" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I154" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J154" t="s">
-        <v>143</v>
+        <v>335</v>
       </c>
       <c r="K154">
-        <f>E154/G154*1000</f>
-        <v>65.573770491803273</v>
+        <f t="shared" si="2"/>
+        <v>25.083612040133776</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B155" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C155" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E155">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="F155">
-        <v>0.336737629252917</v>
+        <v>8.0141742406347E-2</v>
       </c>
       <c r="G155">
-        <v>3.71</v>
+        <v>1.48</v>
       </c>
       <c r="H155" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I155" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J155" t="s">
         <v>335</v>
       </c>
       <c r="K155">
-        <f>E155/G155*1000</f>
-        <v>67.385444743935309</v>
+        <f t="shared" si="2"/>
+        <v>60.810810810810807</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D156">
         <v>1</v>
       </c>
       <c r="E156">
-        <v>0.14499999999999999</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F156">
-        <v>0.14767953624161101</v>
+        <v>4.2540095841646301E-2</v>
       </c>
       <c r="G156">
         <v>2.42</v>
@@ -8272,34 +8259,34 @@
         <v>143</v>
       </c>
       <c r="K156">
-        <f>E156/G156*1000</f>
-        <v>59.917355371900818</v>
+        <f t="shared" si="2"/>
+        <v>14.462809917355374</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="B157" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C157" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0.14499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="F157">
-        <v>0.20793488679265801</v>
+        <v>0.12793785832999399</v>
       </c>
       <c r="G157">
-        <v>3.71</v>
+        <v>3.03</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -8311,34 +8298,34 @@
         <v>143</v>
       </c>
       <c r="K157">
-        <f>E157/G157*1000</f>
-        <v>39.083557951482476</v>
+        <f t="shared" si="2"/>
+        <v>66.006600660066013</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B158" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C158" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D158">
         <v>3</v>
       </c>
       <c r="E158">
-        <v>0.12</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="F158">
-        <v>0.105296621314472</v>
+        <v>0.42238244702625799</v>
       </c>
       <c r="G158">
-        <v>3.21</v>
+        <v>2.44</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -8350,151 +8337,151 @@
         <v>143</v>
       </c>
       <c r="K158">
-        <f>E158/G158*1000</f>
-        <v>37.383177570093459</v>
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="B159" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D159">
         <v>1</v>
       </c>
       <c r="E159">
-        <v>0.16500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="F159">
-        <v>0.197904608287293</v>
+        <v>0.32586773547724202</v>
       </c>
       <c r="G159">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I159" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J159" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="K159">
-        <f>E159/G159*1000</f>
-        <v>53.225806451612904</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B160" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C160" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0.11</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F160">
-        <v>0.186071436082481</v>
+        <v>0.27156342661190802</v>
       </c>
       <c r="G160">
-        <v>4.07</v>
+        <v>2.84</v>
       </c>
       <c r="H160" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I160" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J160" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K160">
-        <f>E160/G160*1000</f>
-        <v>27.027027027027025</v>
+        <f t="shared" si="2"/>
+        <v>61.619718309859159</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B161" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C161" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>4.4999999999999998E-2</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F161">
-        <v>4.5508168133970399E-2</v>
+        <v>0.14767953624161101</v>
       </c>
       <c r="G161">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="H161" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I161" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J161" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K161">
-        <f>E161/G161*1000</f>
-        <v>16.917293233082706</v>
+        <f t="shared" si="2"/>
+        <v>59.917355371900818</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B162" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.125</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F162">
-        <v>0.190106240206666</v>
+        <v>0.20793488679265801</v>
       </c>
       <c r="G162">
-        <v>1.91</v>
+        <v>3.71</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -8506,34 +8493,34 @@
         <v>143</v>
       </c>
       <c r="K162">
-        <f>E162/G162*1000</f>
-        <v>65.445026178010465</v>
+        <f t="shared" si="2"/>
+        <v>39.083557951482476</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B163" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C163" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E163">
-        <v>8.5000000000000006E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F163">
-        <v>0.117614668563967</v>
+        <v>0.105296621314472</v>
       </c>
       <c r="G163">
-        <v>2.31</v>
+        <v>3.21</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -8542,37 +8529,37 @@
         <v>25</v>
       </c>
       <c r="J163" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K163">
-        <f>E163/G163*1000</f>
-        <v>36.796536796536799</v>
+        <f t="shared" si="2"/>
+        <v>37.383177570093459</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B164" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C164" t="s">
         <v>101</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.155</v>
+        <v>0.125</v>
       </c>
       <c r="F164">
-        <v>0.229678413209251</v>
+        <v>0.190106240206666</v>
       </c>
       <c r="G164">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -8584,89 +8571,89 @@
         <v>143</v>
       </c>
       <c r="K164">
-        <f>E164/G164*1000</f>
-        <v>77.5</v>
+        <f t="shared" si="2"/>
+        <v>65.445026178010465</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
-        <v>0.18</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F165">
-        <v>0.23514499058402</v>
+        <v>0.117614668563967</v>
       </c>
       <c r="G165">
-        <v>2.89</v>
+        <v>2.31</v>
       </c>
       <c r="H165" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I165" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J165" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K165">
-        <f>E165/G165*1000</f>
-        <v>62.283737024221452</v>
+        <f t="shared" si="2"/>
+        <v>36.796536796536799</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B166" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C166" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>0.155</v>
+      </c>
+      <c r="F166">
+        <v>0.229678413209251</v>
+      </c>
+      <c r="G166">
         <v>2</v>
       </c>
-      <c r="E166">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="F166">
-        <v>0.32275400777364699</v>
-      </c>
-      <c r="G166">
-        <v>4.49</v>
-      </c>
       <c r="H166" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I166" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="J166" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="K166">
-        <f>E166/G166*1000</f>
-        <v>52.338530066815139</v>
+        <f t="shared" si="2"/>
+        <v>77.5</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -8701,11 +8688,11 @@
         <v>335</v>
       </c>
       <c r="K167">
-        <f>E167/G167*1000</f>
+        <f t="shared" si="2"/>
         <v>31.78484107579462</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -8740,11 +8727,11 @@
         <v>143</v>
       </c>
       <c r="K168">
-        <f>E168/G168*1000</f>
+        <f t="shared" si="2"/>
         <v>104.47761194029852</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -8779,11 +8766,11 @@
         <v>143</v>
       </c>
       <c r="K169">
-        <f>E169/G169*1000</f>
+        <f t="shared" si="2"/>
         <v>64.22018348623854</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -8818,11 +8805,11 @@
         <v>143</v>
       </c>
       <c r="K170">
-        <f>E170/G170*1000</f>
+        <f t="shared" si="2"/>
         <v>64.516129032258064</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -8857,11 +8844,11 @@
         <v>143</v>
       </c>
       <c r="K171">
-        <f>E171/G171*1000</f>
+        <f t="shared" si="2"/>
         <v>59.463986599664985</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -8896,11 +8883,11 @@
         <v>143</v>
       </c>
       <c r="K172">
-        <f>E172/G172*1000</f>
+        <f t="shared" si="2"/>
         <v>42.713567839195981</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -8935,11 +8922,11 @@
         <v>143</v>
       </c>
       <c r="K173">
-        <f>E173/G173*1000</f>
+        <f t="shared" si="2"/>
         <v>117.64705882352942</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -8974,11 +8961,11 @@
         <v>335</v>
       </c>
       <c r="K174">
-        <f>E174/G174*1000</f>
+        <f t="shared" si="2"/>
         <v>60.06006006006006</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -9013,11 +9000,11 @@
         <v>143</v>
       </c>
       <c r="K175">
-        <f>E175/G175*1000</f>
+        <f t="shared" si="2"/>
         <v>96.385542168674704</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -9052,11 +9039,11 @@
         <v>335</v>
       </c>
       <c r="K176">
-        <f>E176/G176*1000</f>
+        <f t="shared" si="2"/>
         <v>101.03626943005183</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -9091,11 +9078,11 @@
         <v>335</v>
       </c>
       <c r="K177">
-        <f>E177/G177*1000</f>
+        <f t="shared" si="2"/>
         <v>28.888888888888889</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -9130,11 +9117,11 @@
         <v>335</v>
       </c>
       <c r="K178">
-        <f>E178/G178*1000</f>
+        <f t="shared" si="2"/>
         <v>45.197740112994353</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -9169,11 +9156,11 @@
         <v>143</v>
       </c>
       <c r="K179">
-        <f>E179/G179*1000</f>
+        <f t="shared" si="2"/>
         <v>50.209205020920493</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -9208,11 +9195,11 @@
         <v>336</v>
       </c>
       <c r="K180">
-        <f>E180/G180*1000</f>
+        <f t="shared" si="2"/>
         <v>57.823129251700685</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -9247,11 +9234,11 @@
         <v>335</v>
       </c>
       <c r="K181">
-        <f>E181/G181*1000</f>
+        <f t="shared" si="2"/>
         <v>14.450867052023122</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -9286,11 +9273,11 @@
         <v>335</v>
       </c>
       <c r="K182">
-        <f>E182/G182*1000</f>
+        <f t="shared" si="2"/>
         <v>64.685314685314694</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -9325,11 +9312,11 @@
         <v>143</v>
       </c>
       <c r="K183">
-        <f>E183/G183*1000</f>
+        <f t="shared" si="2"/>
         <v>93.023255813953497</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -9364,11 +9351,11 @@
         <v>143</v>
       </c>
       <c r="K184">
-        <f>E184/G184*1000</f>
+        <f t="shared" si="2"/>
         <v>62.5</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -9403,11 +9390,11 @@
         <v>335</v>
       </c>
       <c r="K185">
-        <f>E185/G185*1000</f>
+        <f t="shared" si="2"/>
         <v>86.538461538461533</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -9430,7 +9417,7 @@
         <v>0.16324094588041799</v>
       </c>
       <c r="G186">
-        <v>1.06</v>
+        <v>3.06</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -9442,11 +9429,11 @@
         <v>143</v>
       </c>
       <c r="K186">
-        <f>E186/G186*1000</f>
-        <v>150.94339622641508</v>
+        <f t="shared" si="2"/>
+        <v>52.287581699346404</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -9469,7 +9456,7 @@
         <v>0.13697397562650401</v>
       </c>
       <c r="G187">
-        <v>1.02</v>
+        <v>3.02</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -9481,11 +9468,11 @@
         <v>335</v>
       </c>
       <c r="K187">
-        <f>E187/G187*1000</f>
-        <v>132.35294117647058</v>
+        <f t="shared" si="2"/>
+        <v>44.701986754966889</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -9520,11 +9507,11 @@
         <v>336</v>
       </c>
       <c r="K188">
-        <f>E188/G188*1000</f>
+        <f t="shared" si="2"/>
         <v>75.757575757575765</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -9559,11 +9546,11 @@
         <v>335</v>
       </c>
       <c r="K189">
-        <f>E189/G189*1000</f>
+        <f t="shared" si="2"/>
         <v>34.739454094292803</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -9598,11 +9585,11 @@
         <v>143</v>
       </c>
       <c r="K190">
-        <f>E190/G190*1000</f>
+        <f t="shared" si="2"/>
         <v>82.022471910112358</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -9637,11 +9624,11 @@
         <v>335</v>
       </c>
       <c r="K191">
-        <f>E191/G191*1000</f>
+        <f t="shared" si="2"/>
         <v>88.888888888888886</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -9676,11 +9663,11 @@
         <v>335</v>
       </c>
       <c r="K192">
-        <f>E192/G192*1000</f>
+        <f t="shared" si="2"/>
         <v>32.407407407407405</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -9715,11 +9702,11 @@
         <v>335</v>
       </c>
       <c r="K193">
-        <f>E193/G193*1000</f>
+        <f t="shared" si="2"/>
         <v>15.90909090909091</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -9754,11 +9741,11 @@
         <v>335</v>
       </c>
       <c r="K194">
-        <f>E194/G194*1000</f>
+        <f t="shared" ref="K194:K238" si="3">E194/G194*1000</f>
         <v>29.147982062780269</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -9793,11 +9780,11 @@
         <v>335</v>
       </c>
       <c r="K195">
-        <f>E195/G195*1000</f>
+        <f t="shared" si="3"/>
         <v>15.517241379310345</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -9832,11 +9819,11 @@
         <v>1</v>
       </c>
       <c r="K196">
-        <f>E196/G196*1000</f>
+        <f t="shared" si="3"/>
         <v>16.917293233082706</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -9871,11 +9858,11 @@
         <v>143</v>
       </c>
       <c r="K197">
-        <f>E197/G197*1000</f>
+        <f t="shared" si="3"/>
         <v>52.469135802469133</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -9910,11 +9897,11 @@
         <v>143</v>
       </c>
       <c r="K198">
-        <f>E198/G198*1000</f>
+        <f t="shared" si="3"/>
         <v>35.046728971962615</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -9949,11 +9936,11 @@
         <v>143</v>
       </c>
       <c r="K199">
-        <f>E199/G199*1000</f>
+        <f t="shared" si="3"/>
         <v>61.904761904761905</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -9988,11 +9975,11 @@
         <v>335</v>
       </c>
       <c r="K200">
-        <f>E200/G200*1000</f>
+        <f t="shared" si="3"/>
         <v>41.044776119402982</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -10027,11 +10014,11 @@
         <v>143</v>
       </c>
       <c r="K201">
-        <f>E201/G201*1000</f>
+        <f t="shared" si="3"/>
         <v>36.821705426356587</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -10066,11 +10053,11 @@
         <v>335</v>
       </c>
       <c r="K202">
-        <f>E202/G202*1000</f>
+        <f t="shared" si="3"/>
         <v>27.075812274368232</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -10105,11 +10092,11 @@
         <v>335</v>
       </c>
       <c r="K203">
-        <f>E203/G203*1000</f>
+        <f t="shared" si="3"/>
         <v>30.183727034120736</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -10144,11 +10131,11 @@
         <v>335</v>
       </c>
       <c r="K204">
-        <f>E204/G204*1000</f>
+        <f t="shared" si="3"/>
         <v>57.262569832402228</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -10183,11 +10170,11 @@
         <v>143</v>
       </c>
       <c r="K205">
-        <f>E205/G205*1000</f>
+        <f t="shared" si="3"/>
         <v>20.408163265306122</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -10210,7 +10197,7 @@
         <v>0.282237984330381</v>
       </c>
       <c r="G206">
-        <v>2.5299999999999998</v>
+        <v>3.53</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -10222,11 +10209,11 @@
         <v>143</v>
       </c>
       <c r="K206">
-        <f>E206/G206*1000</f>
-        <v>104.74308300395259</v>
+        <f t="shared" si="3"/>
+        <v>75.070821529745047</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -10261,11 +10248,11 @@
         <v>143</v>
       </c>
       <c r="K207">
-        <f>E207/G207*1000</f>
+        <f t="shared" si="3"/>
         <v>57.228915662650607</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -10300,11 +10287,11 @@
         <v>143</v>
       </c>
       <c r="K208">
-        <f>E208/G208*1000</f>
+        <f t="shared" si="3"/>
         <v>39.340101522842637</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -10339,11 +10326,11 @@
         <v>143</v>
       </c>
       <c r="K209">
-        <f>E209/G209*1000</f>
+        <f t="shared" si="3"/>
         <v>33.864541832669325</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -10378,11 +10365,11 @@
         <v>143</v>
       </c>
       <c r="K210">
-        <f>E210/G210*1000</f>
+        <f t="shared" si="3"/>
         <v>67.114093959731548</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -10417,11 +10404,11 @@
         <v>335</v>
       </c>
       <c r="K211">
-        <f>E211/G211*1000</f>
+        <f t="shared" si="3"/>
         <v>28.017241379310349</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -10456,11 +10443,11 @@
         <v>143</v>
       </c>
       <c r="K212">
-        <f>E212/G212*1000</f>
+        <f t="shared" si="3"/>
         <v>53.964757709251096</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -10495,11 +10482,11 @@
         <v>335</v>
       </c>
       <c r="K213">
-        <f>E213/G213*1000</f>
+        <f t="shared" si="3"/>
         <v>37.58542141230069</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -10534,11 +10521,11 @@
         <v>143</v>
       </c>
       <c r="K214">
-        <f>E214/G214*1000</f>
+        <f t="shared" si="3"/>
         <v>73.226544622425635</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -10573,11 +10560,11 @@
         <v>143</v>
       </c>
       <c r="K215">
-        <f>E215/G215*1000</f>
+        <f t="shared" si="3"/>
         <v>78.488372093023258</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -10612,11 +10599,11 @@
         <v>143</v>
       </c>
       <c r="K216">
-        <f>E216/G216*1000</f>
+        <f t="shared" si="3"/>
         <v>72.966507177033492</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -10651,11 +10638,11 @@
         <v>143</v>
       </c>
       <c r="K217">
-        <f>E217/G217*1000</f>
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
@@ -10690,11 +10677,11 @@
         <v>336</v>
       </c>
       <c r="K218">
-        <f>E218/G218*1000</f>
+        <f t="shared" si="3"/>
         <v>93.155893536121681</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -10717,7 +10704,7 @@
         <v>0.22898164771936</v>
       </c>
       <c r="G219">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
       <c r="H219" t="s">
         <v>4</v>
@@ -10729,11 +10716,11 @@
         <v>143</v>
       </c>
       <c r="K219">
-        <f>E219/G219*1000</f>
-        <v>92.964824120603012</v>
+        <f t="shared" si="3"/>
+        <v>61.872909698996651</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -10756,7 +10743,7 @@
         <v>0.32934192400988199</v>
       </c>
       <c r="G220">
-        <v>2.09</v>
+        <v>3.09</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -10769,10 +10756,10 @@
       </c>
       <c r="K220">
         <f>E220/G220*1000</f>
-        <v>117.22488038277513</v>
+        <v>79.288025889967642</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -10807,11 +10794,11 @@
         <v>335</v>
       </c>
       <c r="K221">
-        <f>E221/G221*1000</f>
+        <f t="shared" si="3"/>
         <v>65.436241610738264</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -10846,11 +10833,11 @@
         <v>335</v>
       </c>
       <c r="K222">
-        <f>E222/G222*1000</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -10885,11 +10872,11 @@
         <v>335</v>
       </c>
       <c r="K223">
-        <f>E223/G223*1000</f>
+        <f t="shared" si="3"/>
         <v>9.8039215686274535</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -10924,11 +10911,11 @@
         <v>143</v>
       </c>
       <c r="K224">
-        <f>E224/G224*1000</f>
+        <f t="shared" si="3"/>
         <v>60.070671378091873</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -10963,11 +10950,11 @@
         <v>143</v>
       </c>
       <c r="K225">
-        <f>E225/G225*1000</f>
+        <f t="shared" si="3"/>
         <v>69.131832797427663</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -11002,11 +10989,11 @@
         <v>335</v>
       </c>
       <c r="K226">
-        <f>E226/G226*1000</f>
+        <f t="shared" si="3"/>
         <v>96.707818930041142</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
@@ -11041,11 +11028,11 @@
         <v>335</v>
       </c>
       <c r="K227">
-        <f>E227/G227*1000</f>
+        <f t="shared" si="3"/>
         <v>121.654501216545</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -11080,11 +11067,11 @@
         <v>143</v>
       </c>
       <c r="K228">
-        <f>E228/G228*1000</f>
+        <f t="shared" si="3"/>
         <v>72.761194029850742</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -11107,7 +11094,7 @@
         <v>0.587140429162466</v>
       </c>
       <c r="G229">
-        <v>2.37</v>
+        <v>3.37</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -11119,11 +11106,11 @@
         <v>143</v>
       </c>
       <c r="K229">
-        <f>E229/G229*1000</f>
-        <v>154.00843881856537</v>
+        <f t="shared" si="3"/>
+        <v>108.30860534124628</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -11158,11 +11145,11 @@
         <v>335</v>
       </c>
       <c r="K230">
-        <f>E230/G230*1000</f>
+        <f t="shared" si="3"/>
         <v>61.797752808988761</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -11197,11 +11184,11 @@
         <v>335</v>
       </c>
       <c r="K231">
-        <f>E231/G231*1000</f>
+        <f t="shared" si="3"/>
         <v>53.613053613053616</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -11236,11 +11223,11 @@
         <v>335</v>
       </c>
       <c r="K232">
-        <f>E232/G232*1000</f>
+        <f t="shared" si="3"/>
         <v>51.194539249146757</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -11275,11 +11262,11 @@
         <v>335</v>
       </c>
       <c r="K233">
-        <f>E233/G233*1000</f>
+        <f t="shared" si="3"/>
         <v>53.459119496855351</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -11302,7 +11289,7 @@
         <v>0.14141506543679</v>
       </c>
       <c r="G234">
-        <v>2.88</v>
+        <v>3.88</v>
       </c>
       <c r="H234" t="s">
         <v>4</v>
@@ -11314,19 +11301,19 @@
         <v>335</v>
       </c>
       <c r="K234">
-        <f>E234/G234*1000</f>
-        <v>72.916666666666671</v>
+        <f t="shared" si="3"/>
+        <v>54.123711340206185</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B235" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -11353,11 +11340,11 @@
         <v>335</v>
       </c>
       <c r="K235">
-        <f>E235/G235*1000</f>
+        <f t="shared" si="3"/>
         <v>67.708333333333343</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
@@ -11392,11 +11379,11 @@
         <v>143</v>
       </c>
       <c r="K236">
-        <f>E236/G236*1000</f>
+        <f t="shared" si="3"/>
         <v>80.086580086580085</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -11419,7 +11406,7 @@
         <v>0.19189636902613699</v>
       </c>
       <c r="G237">
-        <v>1.97</v>
+        <v>2.97</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -11431,11 +11418,11 @@
         <v>335</v>
       </c>
       <c r="K237">
-        <f>E237/G237*1000</f>
-        <v>124.36548223350253</v>
+        <f t="shared" si="3"/>
+        <v>82.491582491582491</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -11470,18 +11457,18 @@
         <v>335</v>
       </c>
       <c r="K238">
-        <f>E238/G238*1000</f>
+        <f t="shared" si="3"/>
         <v>37.102473498233216</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{98224DF2-ACA2-4B22-9DE6-3F5BF47F61D1}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M238">
-    <sortCondition ref="C2:C238"/>
-    <sortCondition ref="I2:I238"/>
+  <autoFilter ref="A1:L1" xr:uid="{98224DF2-ACA2-4B22-9DE6-3F5BF47F61D1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L239">
+    <sortCondition ref="H2:H239"/>
+    <sortCondition ref="C2:C239"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13927,7 +13914,7 @@
         <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -13935,87 +13922,87 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B6" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14023,7 +14010,7 @@
         <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14031,7 +14018,7 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14039,7 +14026,7 @@
         <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14047,7 +14034,7 @@
         <v>74</v>
       </c>
       <c r="B16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14055,7 +14042,7 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14063,7 +14050,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14071,7 +14058,7 @@
         <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14079,7 +14066,7 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14087,7 +14074,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -14095,7 +14082,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -14103,7 +14090,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -14111,7 +14098,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14119,7 +14106,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -14127,7 +14114,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -14135,7 +14122,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14143,7 +14130,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -14151,7 +14138,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -14159,7 +14146,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -14167,7 +14154,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -14175,7 +14162,7 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -14183,7 +14170,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -14191,7 +14178,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -14199,7 +14186,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -14207,7 +14194,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -14215,7 +14202,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -14223,7 +14210,7 @@
         <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -14231,7 +14218,7 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -14239,7 +14226,7 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -14247,7 +14234,7 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -14255,7 +14242,7 @@
         <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -14263,31 +14250,31 @@
         <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B44" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B46" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -14295,7 +14282,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -14303,7 +14290,7 @@
         <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -14311,7 +14298,7 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -14319,7 +14306,7 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -14327,7 +14314,7 @@
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -14335,7 +14322,7 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -14343,7 +14330,7 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -14351,7 +14338,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -14359,7 +14346,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -14367,7 +14354,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -14375,7 +14362,7 @@
         <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -14383,23 +14370,23 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B59" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
